--- a/a.xlsx
+++ b/a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6199" uniqueCount="4960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="5314">
   <si>
     <t>番号</t>
   </si>
@@ -14907,6 +14907,1068 @@
       <t>エイブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動詞</t>
+  </si>
+  <si>
+    <t>形容詞</t>
+  </si>
+  <si>
+    <t>副詞</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>遊ぶ、演奏する</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>幸せな、嬉しい</t>
+  </si>
+  <si>
+    <t>quickly</t>
+  </si>
+  <si>
+    <t>速く、すばやく</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>勉強する</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>悲しい</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>ゆっくりと、遅く</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>料理する</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>面白い</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>上手に、うまく</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>掃除する</t>
+  </si>
+  <si>
+    <t>busy</t>
+  </si>
+  <si>
+    <t>忙しい</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>悪く、まずく</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>書く</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>疲れた、疲れている</t>
+  </si>
+  <si>
+    <t>carefully</t>
+  </si>
+  <si>
+    <t>注意深く、慎重に</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>読む</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>暑い</t>
+  </si>
+  <si>
+    <t>carelessly</t>
+  </si>
+  <si>
+    <t>不注意に、軽率に</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>走る</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>寒い</t>
+  </si>
+  <si>
+    <t>loudly</t>
+  </si>
+  <si>
+    <t>大声で、うるさい</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>泳ぐ</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>お腹が空いた、飢えている</t>
+  </si>
+  <si>
+    <t>quietly</t>
+  </si>
+  <si>
+    <t>静かに、そっと</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>食べる</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>のどが渇いた</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>一生懸命に、熱心に</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>飲む</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>良い、良好な</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>簡単に、容易に</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>寝る</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>悪い、良くない</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>よく、しばしば</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>踊る</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>面白い、興味深い</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>時々、ときどき</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>歌う</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>難しい</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>いつも、常に</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>聞く（音楽などを）</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>簡単な、易しい</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>決して～ない、全く～ない</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>見る（映画やテレビなどを）</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>小さい、小さな</t>
+  </si>
+  <si>
+    <t>めったに～ない、滅多に～ない</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>話す</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>大きい、大きな</t>
+  </si>
+  <si>
+    <t>大部分は、主に</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>働く</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>古い、年をとった</t>
+  </si>
+  <si>
+    <t>generally</t>
+  </si>
+  <si>
+    <t>一般的に、普通は</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>旅行する</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>新しい</t>
+  </si>
+  <si>
+    <t>時折、たまに</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>買い物をする</t>
+  </si>
+  <si>
+    <t>きれいな、清潔な</t>
+  </si>
+  <si>
+    <t>頻繁に、しばしば</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>待つ</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>汚い</t>
+  </si>
+  <si>
+    <t>めったに～ない、稀に～ない</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>助ける、手伝う</t>
+  </si>
+  <si>
+    <t>快適な</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>近いうちに、すぐに</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>会う</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>静かな</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>遅く、遅れて</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>訪れる</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>騒がしい、うるさい</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>早く、早い</t>
+  </si>
+  <si>
+    <t>高価な、高い</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>一緒に、共に</t>
+  </si>
+  <si>
+    <t>play sports</t>
+  </si>
+  <si>
+    <t>スポーツをする</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>離れて、ばらばらに</t>
+  </si>
+  <si>
+    <t>take a walk</t>
+  </si>
+  <si>
+    <t>散歩する</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>おいしい</t>
+  </si>
+  <si>
+    <t>forwards</t>
+  </si>
+  <si>
+    <t>前へ、前方に</t>
+  </si>
+  <si>
+    <t>take a bath/shower</t>
+  </si>
+  <si>
+    <t>風呂に入る</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>美しい</t>
+  </si>
+  <si>
+    <t>backwards</t>
+  </si>
+  <si>
+    <t>後ろへ、後方に</t>
+  </si>
+  <si>
+    <t>brush teeth</t>
+  </si>
+  <si>
+    <t>歯を磨く</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>醜い</t>
+  </si>
+  <si>
+    <t>upstairs</t>
+  </si>
+  <si>
+    <t>上の階へ、階上に</t>
+  </si>
+  <si>
+    <t>wash hands/face</t>
+  </si>
+  <si>
+    <t>手や顔を洗う</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>優しい、親切な</t>
+  </si>
+  <si>
+    <t>downstairs</t>
+  </si>
+  <si>
+    <t>下の階へ、階下に</t>
+  </si>
+  <si>
+    <t>ride a bike</t>
+  </si>
+  <si>
+    <t>自転車に乗る</t>
+  </si>
+  <si>
+    <t>意地悪な、卑劣な</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>周りに、周囲に</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>運転する</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>賢い、頭の良い</t>
+  </si>
+  <si>
+    <t>外国へ、海外に</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>飛ぶ、飛行機で行く</t>
+  </si>
+  <si>
+    <t>愚かな、バカな</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>ここに、こちらに</t>
+  </si>
+  <si>
+    <t>catch a cold</t>
+  </si>
+  <si>
+    <t>風邪をひく</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>そこに、あそこに</t>
+  </si>
+  <si>
+    <t>get up</t>
+  </si>
+  <si>
+    <t>起きる</t>
+  </si>
+  <si>
+    <t>everywhere</t>
+  </si>
+  <si>
+    <t>どこにでも、至る所に</t>
+  </si>
+  <si>
+    <t>go to bed</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>速い、早い</t>
+  </si>
+  <si>
+    <t>どこにも～ない、どこでも～ない</t>
+  </si>
+  <si>
+    <t>turn on/off (lights)</t>
+  </si>
+  <si>
+    <t>照明をつける／消す</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>遅い</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>毎日、日々</t>
+  </si>
+  <si>
+    <t>play video games</t>
+  </si>
+  <si>
+    <t>ビデオゲームをする</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>注意深い、慎重な</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>毎週、週に一度</t>
+  </si>
+  <si>
+    <t>cook dinner</t>
+  </si>
+  <si>
+    <t>夕食を作る</t>
+  </si>
+  <si>
+    <t>careless</t>
+  </si>
+  <si>
+    <t>不注意な、軽率な</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>月ごとに、毎月</t>
+  </si>
+  <si>
+    <t>read a book</t>
+  </si>
+  <si>
+    <t>本を読む</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>危険な</t>
+  </si>
+  <si>
+    <t>annually</t>
+  </si>
+  <si>
+    <t>年に一度、毎年</t>
+  </si>
+  <si>
+    <t>write a letter</t>
+  </si>
+  <si>
+    <t>手紙を書く</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>安全な</t>
+  </si>
+  <si>
+    <t>suddenly</t>
+  </si>
+  <si>
+    <t>突然に、急に</t>
+  </si>
+  <si>
+    <t>draw a picture</t>
+  </si>
+  <si>
+    <t>絵を描く</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>勇敢な、勇ましい</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>最終的に、ついに</t>
+  </si>
+  <si>
+    <t>sing a song</t>
+  </si>
+  <si>
+    <t>歌を歌う</t>
+  </si>
+  <si>
+    <t>恐れている、怖い</t>
+  </si>
+  <si>
+    <t>直ちに、すぐに</t>
+  </si>
+  <si>
+    <t>listen to music</t>
+  </si>
+  <si>
+    <t>音楽を聴く</t>
+  </si>
+  <si>
+    <t>surprised</t>
+  </si>
+  <si>
+    <t>驚いた、びっくりした</t>
+  </si>
+  <si>
+    <t>naturally</t>
+  </si>
+  <si>
+    <t>自然に、当然に</t>
+  </si>
+  <si>
+    <t>watch TV</t>
+  </si>
+  <si>
+    <t>テレビを見る</t>
+  </si>
+  <si>
+    <t>退屈した、飽きた</t>
+  </si>
+  <si>
+    <t>普通に、通常は</t>
+  </si>
+  <si>
+    <t>talk on the phone</t>
+  </si>
+  <si>
+    <t>電話で話す</t>
+  </si>
+  <si>
+    <t>exciting</t>
+  </si>
+  <si>
+    <t>興奮させる、刺激的な</t>
+  </si>
+  <si>
+    <t>work on homework</t>
+  </si>
+  <si>
+    <t>宿題をする</t>
+  </si>
+  <si>
+    <t>old-fashioned</t>
+  </si>
+  <si>
+    <t>時代遅れの、古風な</t>
+  </si>
+  <si>
+    <t>anxiously</t>
+  </si>
+  <si>
+    <t>心配して、不安そうに</t>
+  </si>
+  <si>
+    <t>travel abroad</t>
+  </si>
+  <si>
+    <t>海外に旅行する</t>
+  </si>
+  <si>
+    <t>現代の、モダンな</t>
+  </si>
+  <si>
+    <t>patiently</t>
+  </si>
+  <si>
+    <t>辛抱強く、忍耐強く</t>
+  </si>
+  <si>
+    <t>shop for clothes</t>
+  </si>
+  <si>
+    <t>服を買い物する</t>
+  </si>
+  <si>
+    <t>伝統的な、伝統に固執した</t>
+  </si>
+  <si>
+    <t>eagerly</t>
+  </si>
+  <si>
+    <t>熱心に、熱望して</t>
+  </si>
+  <si>
+    <t>help with homework</t>
+  </si>
+  <si>
+    <t>宿題を手伝う</t>
+  </si>
+  <si>
+    <t>progressive</t>
+  </si>
+  <si>
+    <t>進歩的な、前進的な</t>
+  </si>
+  <si>
+    <t>reluctantly</t>
+  </si>
+  <si>
+    <t>いやいやながら、しぶしぶ</t>
+  </si>
+  <si>
+    <t>meet friends</t>
+  </si>
+  <si>
+    <t>友達に会う</t>
+  </si>
+  <si>
+    <t>futuristic</t>
+  </si>
+  <si>
+    <t>未来的な、将来の</t>
+  </si>
+  <si>
+    <t>regularly</t>
+  </si>
+  <si>
+    <t>定期的に、規則的に</t>
+  </si>
+  <si>
+    <t>visit a museum</t>
+  </si>
+  <si>
+    <t>博物館を訪れる</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>信頼できる、頼りになる</t>
+  </si>
+  <si>
+    <t>casually</t>
+  </si>
+  <si>
+    <t>何気なく、さりげなく</t>
+  </si>
+  <si>
+    <t>play soccer</t>
+  </si>
+  <si>
+    <t>サッカーをする</t>
+  </si>
+  <si>
+    <t>unreliable</t>
+  </si>
+  <si>
+    <t>信頼できない、頼りにならない</t>
+  </si>
+  <si>
+    <t>happily</t>
+  </si>
+  <si>
+    <t>幸せそうに、喜んで</t>
+  </si>
+  <si>
+    <t>take a nap</t>
+  </si>
+  <si>
+    <t>昼寝をする</t>
+  </si>
+  <si>
+    <t>礼儀正しい、丁寧な</t>
+  </si>
+  <si>
+    <t>sadly</t>
+  </si>
+  <si>
+    <t>悲しそうに、悲しく</t>
+  </si>
+  <si>
+    <t>take a shower</t>
+  </si>
+  <si>
+    <t>シャワーを浴びる</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>無礼な、失礼な</t>
+  </si>
+  <si>
+    <t>angrily</t>
+  </si>
+  <si>
+    <t>怒って、立腹して</t>
+  </si>
+  <si>
+    <t>brush hair</t>
+  </si>
+  <si>
+    <t>髪をブラシでとかす</t>
+  </si>
+  <si>
+    <t>正直な、誠実な</t>
+  </si>
+  <si>
+    <t>calmly</t>
+  </si>
+  <si>
+    <t>穏やかに、落ち着いて</t>
+  </si>
+  <si>
+    <t>wash dishes</t>
+  </si>
+  <si>
+    <t>皿を洗う</t>
+  </si>
+  <si>
+    <t>dishonest</t>
+  </si>
+  <si>
+    <t>不正直な、不誠実な</t>
+  </si>
+  <si>
+    <t>ride the bus</t>
+  </si>
+  <si>
+    <t>バスに乗る</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>寛大な、気前の良い</t>
+  </si>
+  <si>
+    <t>drive a car</t>
+  </si>
+  <si>
+    <t>車を運転する</t>
+  </si>
+  <si>
+    <t>stingy</t>
+  </si>
+  <si>
+    <t>けちな、欲張りな</t>
+  </si>
+  <si>
+    <t>fly a kite</t>
+  </si>
+  <si>
+    <t>凧を揚げる</t>
+  </si>
+  <si>
+    <t>忍耐強い、我慢強い</t>
+  </si>
+  <si>
+    <t>catch a bus/train</t>
+  </si>
+  <si>
+    <t>バス／電車に乗る</t>
+  </si>
+  <si>
+    <t>impatient</t>
+  </si>
+  <si>
+    <t>我慢できない、せっかちな</t>
+  </si>
+  <si>
+    <t>get dressed</t>
+  </si>
+  <si>
+    <t>着替える</t>
+  </si>
+  <si>
+    <t>go fishing</t>
+  </si>
+  <si>
+    <t>釣りに行く</t>
+  </si>
+  <si>
+    <t>turn on/off (computer)</t>
+  </si>
+  <si>
+    <t>コンピューターをつける／消す</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t>身近な、馴染みのある</t>
+  </si>
+  <si>
+    <t>unfamiliar</t>
+  </si>
+  <si>
+    <t>不慣れな、見慣れない</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>健康な、健全な</t>
+  </si>
+  <si>
+    <t>unhealthy</t>
+  </si>
+  <si>
+    <t>不健康な</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>退屈な、つまらない</t>
+  </si>
+  <si>
+    <t>快適な、心地よい</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>不快な、不安な</t>
+  </si>
+  <si>
+    <t>人気のある、流行の</t>
+  </si>
+  <si>
+    <t>unpopular</t>
+  </si>
+  <si>
+    <t>不人気の、流行らない</t>
+  </si>
+  <si>
+    <t>美しい、美麗な</t>
+  </si>
+  <si>
+    <t>醜い、不美しい</t>
+  </si>
+  <si>
+    <t>安全な、危険のない</t>
+  </si>
+  <si>
+    <t>危険な、危険がある</t>
+  </si>
+  <si>
+    <t>汚い、汚れた</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>簡単な、シンプルな</t>
+  </si>
+  <si>
+    <t>複雑な、複合的な</t>
+  </si>
+  <si>
+    <t>優しい、穏やかな</t>
+  </si>
+  <si>
+    <t>荒々しい、粗野な</t>
   </si>
 </sst>
 </file>
@@ -15294,10 +16356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1223"/>
+  <dimension ref="A1:P1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15306,9 +16368,15 @@
     <col min="7" max="7" width="36" customWidth="1"/>
     <col min="9" max="9" width="77.75" customWidth="1"/>
     <col min="10" max="10" width="83.875" customWidth="1"/>
+    <col min="11" max="11" width="24.375" customWidth="1"/>
+    <col min="12" max="12" width="34.125" customWidth="1"/>
+    <col min="13" max="13" width="22.875" customWidth="1"/>
+    <col min="14" max="14" width="29.25" customWidth="1"/>
+    <col min="15" max="15" width="28.25" customWidth="1"/>
+    <col min="16" max="16" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15333,8 +16401,17 @@
       <c r="J1" s="1" t="s">
         <v>4958</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K1" s="1" t="s">
+        <v>4960</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4961</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -15359,8 +16436,26 @@
       <c r="J2" t="s">
         <v>3736</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K2" t="s">
+        <v>4963</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4964</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4965</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4966</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4967</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -15385,8 +16480,26 @@
       <c r="J3" t="s">
         <v>3737</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K3" t="s">
+        <v>4969</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4970</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4971</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4972</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4973</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -15411,8 +16524,26 @@
       <c r="J4" t="s">
         <v>3738</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K4" t="s">
+        <v>4975</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4976</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4977</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4978</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4979</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -15437,8 +16568,26 @@
       <c r="J5" t="s">
         <v>3739</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K5" t="s">
+        <v>4981</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4982</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4983</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4984</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4985</v>
+      </c>
+      <c r="P5" t="s">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -15463,8 +16612,26 @@
       <c r="J6" t="s">
         <v>3740</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K6" t="s">
+        <v>4987</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4988</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4989</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4990</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4991</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -15489,8 +16656,26 @@
       <c r="J7" t="s">
         <v>3741</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4994</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4995</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4996</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4997</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -15515,8 +16700,26 @@
       <c r="J8" t="s">
         <v>3742</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K8" t="s">
+        <v>4999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5001</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5002</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5003</v>
+      </c>
+      <c r="P8" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -15541,8 +16744,26 @@
       <c r="J9" t="s">
         <v>3743</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K9" t="s">
+        <v>5005</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5006</v>
+      </c>
+      <c r="M9" t="s">
+        <v>5007</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5008</v>
+      </c>
+      <c r="O9" t="s">
+        <v>5009</v>
+      </c>
+      <c r="P9" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -15567,8 +16788,26 @@
       <c r="J10" t="s">
         <v>3744</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K10" t="s">
+        <v>5011</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5012</v>
+      </c>
+      <c r="M10" t="s">
+        <v>5013</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5014</v>
+      </c>
+      <c r="O10" t="s">
+        <v>5015</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -15593,8 +16832,26 @@
       <c r="J11" t="s">
         <v>3745</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K11" t="s">
+        <v>5017</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5018</v>
+      </c>
+      <c r="M11" t="s">
+        <v>5019</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5020</v>
+      </c>
+      <c r="O11" t="s">
+        <v>5021</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -15619,8 +16876,26 @@
       <c r="J12" t="s">
         <v>3746</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K12" t="s">
+        <v>5023</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5024</v>
+      </c>
+      <c r="M12" t="s">
+        <v>5025</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5026</v>
+      </c>
+      <c r="O12" t="s">
+        <v>5027</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -15645,8 +16920,26 @@
       <c r="J13" t="s">
         <v>3747</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>5029</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5030</v>
+      </c>
+      <c r="M13" t="s">
+        <v>5031</v>
+      </c>
+      <c r="N13" t="s">
+        <v>5032</v>
+      </c>
+      <c r="O13" t="s">
+        <v>5033</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -15671,8 +16964,26 @@
       <c r="J14" t="s">
         <v>3748</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K14" t="s">
+        <v>5035</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5036</v>
+      </c>
+      <c r="M14" t="s">
+        <v>5037</v>
+      </c>
+      <c r="N14" t="s">
+        <v>5038</v>
+      </c>
+      <c r="O14" t="s">
+        <v>5039</v>
+      </c>
+      <c r="P14" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -15697,8 +17008,26 @@
       <c r="J15" t="s">
         <v>3749</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K15" t="s">
+        <v>5041</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5042</v>
+      </c>
+      <c r="M15" t="s">
+        <v>5043</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5044</v>
+      </c>
+      <c r="O15" t="s">
+        <v>5045</v>
+      </c>
+      <c r="P15" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -15723,8 +17052,26 @@
       <c r="J16" t="s">
         <v>3750</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K16" t="s">
+        <v>5047</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5048</v>
+      </c>
+      <c r="M16" t="s">
+        <v>5049</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5050</v>
+      </c>
+      <c r="O16" t="s">
+        <v>276</v>
+      </c>
+      <c r="P16" t="s">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -15749,8 +17096,26 @@
       <c r="J17" t="s">
         <v>3751</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K17" t="s">
+        <v>5052</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5053</v>
+      </c>
+      <c r="M17" t="s">
+        <v>5054</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5055</v>
+      </c>
+      <c r="O17" t="s">
+        <v>384</v>
+      </c>
+      <c r="P17" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -15775,8 +17140,26 @@
       <c r="J18" t="s">
         <v>3752</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K18" t="s">
+        <v>5057</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5058</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5059</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5060</v>
+      </c>
+      <c r="O18" t="s">
+        <v>5061</v>
+      </c>
+      <c r="P18" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -15801,8 +17184,26 @@
       <c r="J19" t="s">
         <v>3753</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K19" t="s">
+        <v>5063</v>
+      </c>
+      <c r="L19" t="s">
+        <v>5064</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5065</v>
+      </c>
+      <c r="N19" t="s">
+        <v>5066</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1391</v>
+      </c>
+      <c r="P19" t="s">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -15827,8 +17228,26 @@
       <c r="J20" t="s">
         <v>3754</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K20" t="s">
+        <v>5068</v>
+      </c>
+      <c r="L20" t="s">
+        <v>5069</v>
+      </c>
+      <c r="M20" t="s">
+        <v>4981</v>
+      </c>
+      <c r="N20" t="s">
+        <v>5070</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2186</v>
+      </c>
+      <c r="P20" t="s">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -15853,8 +17272,26 @@
       <c r="J21" t="s">
         <v>3755</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K21" t="s">
+        <v>5072</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5073</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5074</v>
+      </c>
+      <c r="N21" t="s">
+        <v>5075</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1775</v>
+      </c>
+      <c r="P21" t="s">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -15879,8 +17316,26 @@
       <c r="J22" t="s">
         <v>3756</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K22" t="s">
+        <v>5077</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5078</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" t="s">
+        <v>5079</v>
+      </c>
+      <c r="O22" t="s">
+        <v>5080</v>
+      </c>
+      <c r="P22" t="s">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -15905,8 +17360,26 @@
       <c r="J23" t="s">
         <v>3757</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K23" t="s">
+        <v>5082</v>
+      </c>
+      <c r="L23" t="s">
+        <v>5083</v>
+      </c>
+      <c r="M23" t="s">
+        <v>5084</v>
+      </c>
+      <c r="N23" t="s">
+        <v>5085</v>
+      </c>
+      <c r="O23" t="s">
+        <v>5086</v>
+      </c>
+      <c r="P23" t="s">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -15931,8 +17404,26 @@
       <c r="J24" t="s">
         <v>3758</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K24" t="s">
+        <v>5088</v>
+      </c>
+      <c r="L24" t="s">
+        <v>5089</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5090</v>
+      </c>
+      <c r="N24" t="s">
+        <v>5091</v>
+      </c>
+      <c r="O24" t="s">
+        <v>5092</v>
+      </c>
+      <c r="P24" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -15957,8 +17448,26 @@
       <c r="J25" t="s">
         <v>3759</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K25" t="s">
+        <v>4969</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4970</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2115</v>
+      </c>
+      <c r="N25" t="s">
+        <v>5094</v>
+      </c>
+      <c r="O25" t="s">
+        <v>5095</v>
+      </c>
+      <c r="P25" t="s">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -15983,8 +17492,26 @@
       <c r="J26" t="s">
         <v>3760</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K26" t="s">
+        <v>5097</v>
+      </c>
+      <c r="L26" t="s">
+        <v>5098</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5099</v>
+      </c>
+      <c r="N26" t="s">
+        <v>5100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>2448</v>
+      </c>
+      <c r="P26" t="s">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -16009,8 +17536,26 @@
       <c r="J27" t="s">
         <v>3761</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K27" t="s">
+        <v>5102</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5103</v>
+      </c>
+      <c r="M27" t="s">
+        <v>5104</v>
+      </c>
+      <c r="N27" t="s">
+        <v>5105</v>
+      </c>
+      <c r="O27" t="s">
+        <v>5106</v>
+      </c>
+      <c r="P27" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -16035,8 +17580,26 @@
       <c r="J28" t="s">
         <v>3762</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K28" t="s">
+        <v>5108</v>
+      </c>
+      <c r="L28" t="s">
+        <v>5109</v>
+      </c>
+      <c r="M28" t="s">
+        <v>5110</v>
+      </c>
+      <c r="N28" t="s">
+        <v>5111</v>
+      </c>
+      <c r="O28" t="s">
+        <v>5112</v>
+      </c>
+      <c r="P28" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -16061,8 +17624,26 @@
       <c r="J29" t="s">
         <v>3763</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K29" t="s">
+        <v>5114</v>
+      </c>
+      <c r="L29" t="s">
+        <v>5115</v>
+      </c>
+      <c r="M29" t="s">
+        <v>5116</v>
+      </c>
+      <c r="N29" t="s">
+        <v>5117</v>
+      </c>
+      <c r="O29" t="s">
+        <v>5118</v>
+      </c>
+      <c r="P29" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -16087,8 +17668,26 @@
       <c r="J30" t="s">
         <v>3764</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K30" t="s">
+        <v>5120</v>
+      </c>
+      <c r="L30" t="s">
+        <v>5121</v>
+      </c>
+      <c r="M30" t="s">
+        <v>5122</v>
+      </c>
+      <c r="N30" t="s">
+        <v>5123</v>
+      </c>
+      <c r="O30" t="s">
+        <v>5124</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -16113,8 +17712,26 @@
       <c r="J31" t="s">
         <v>3765</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K31" t="s">
+        <v>5126</v>
+      </c>
+      <c r="L31" t="s">
+        <v>5127</v>
+      </c>
+      <c r="M31" t="s">
+        <v>436</v>
+      </c>
+      <c r="N31" t="s">
+        <v>5128</v>
+      </c>
+      <c r="O31" t="s">
+        <v>5129</v>
+      </c>
+      <c r="P31" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -16139,8 +17756,26 @@
       <c r="J32" t="s">
         <v>3766</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K32" t="s">
+        <v>5131</v>
+      </c>
+      <c r="L32" t="s">
+        <v>5132</v>
+      </c>
+      <c r="M32" t="s">
+        <v>5133</v>
+      </c>
+      <c r="N32" t="s">
+        <v>5134</v>
+      </c>
+      <c r="O32" t="s">
+        <v>195</v>
+      </c>
+      <c r="P32" t="s">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -16165,8 +17800,26 @@
       <c r="J33" t="s">
         <v>3767</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K33" t="s">
+        <v>5136</v>
+      </c>
+      <c r="L33" t="s">
+        <v>5137</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2090</v>
+      </c>
+      <c r="N33" t="s">
+        <v>5138</v>
+      </c>
+      <c r="O33" t="s">
+        <v>5139</v>
+      </c>
+      <c r="P33" t="s">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -16191,8 +17844,26 @@
       <c r="J34" t="s">
         <v>3768</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K34" t="s">
+        <v>5141</v>
+      </c>
+      <c r="L34" t="s">
+        <v>5142</v>
+      </c>
+      <c r="M34" t="s">
+        <v>5084</v>
+      </c>
+      <c r="N34" t="s">
+        <v>5085</v>
+      </c>
+      <c r="O34" t="s">
+        <v>5143</v>
+      </c>
+      <c r="P34" t="s">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -16217,8 +17888,26 @@
       <c r="J35" t="s">
         <v>3769</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K35" t="s">
+        <v>5145</v>
+      </c>
+      <c r="L35" t="s">
+        <v>5146</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5090</v>
+      </c>
+      <c r="N35" t="s">
+        <v>5091</v>
+      </c>
+      <c r="O35" t="s">
+        <v>5147</v>
+      </c>
+      <c r="P35" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -16243,8 +17932,26 @@
       <c r="J36" t="s">
         <v>3770</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K36" t="s">
+        <v>5149</v>
+      </c>
+      <c r="L36" t="s">
+        <v>5024</v>
+      </c>
+      <c r="M36" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N36" t="s">
+        <v>5151</v>
+      </c>
+      <c r="O36" t="s">
+        <v>691</v>
+      </c>
+      <c r="P36" t="s">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -16269,8 +17976,26 @@
       <c r="J37" t="s">
         <v>3771</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K37" t="s">
+        <v>5153</v>
+      </c>
+      <c r="L37" t="s">
+        <v>5154</v>
+      </c>
+      <c r="M37" t="s">
+        <v>5155</v>
+      </c>
+      <c r="N37" t="s">
+        <v>5156</v>
+      </c>
+      <c r="O37" t="s">
+        <v>5157</v>
+      </c>
+      <c r="P37" t="s">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -16295,8 +18020,26 @@
       <c r="J38" t="s">
         <v>3772</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K38" t="s">
+        <v>5159</v>
+      </c>
+      <c r="L38" t="s">
+        <v>5160</v>
+      </c>
+      <c r="M38" t="s">
+        <v>5161</v>
+      </c>
+      <c r="N38" t="s">
+        <v>5162</v>
+      </c>
+      <c r="O38" t="s">
+        <v>5163</v>
+      </c>
+      <c r="P38" t="s">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -16321,8 +18064,26 @@
       <c r="J39" t="s">
         <v>3773</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K39" t="s">
+        <v>5165</v>
+      </c>
+      <c r="L39" t="s">
+        <v>5166</v>
+      </c>
+      <c r="M39" t="s">
+        <v>5167</v>
+      </c>
+      <c r="N39" t="s">
+        <v>5168</v>
+      </c>
+      <c r="O39" t="s">
+        <v>5169</v>
+      </c>
+      <c r="P39" t="s">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -16347,8 +18108,26 @@
       <c r="J40" t="s">
         <v>3774</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K40" t="s">
+        <v>5171</v>
+      </c>
+      <c r="L40" t="s">
+        <v>5172</v>
+      </c>
+      <c r="M40" t="s">
+        <v>5173</v>
+      </c>
+      <c r="N40" t="s">
+        <v>5174</v>
+      </c>
+      <c r="O40" t="s">
+        <v>5175</v>
+      </c>
+      <c r="P40" t="s">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -16373,8 +18152,26 @@
       <c r="J41" t="s">
         <v>3775</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K41" t="s">
+        <v>5177</v>
+      </c>
+      <c r="L41" t="s">
+        <v>5178</v>
+      </c>
+      <c r="M41" t="s">
+        <v>5179</v>
+      </c>
+      <c r="N41" t="s">
+        <v>5180</v>
+      </c>
+      <c r="O41" t="s">
+        <v>5181</v>
+      </c>
+      <c r="P41" t="s">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -16399,8 +18196,26 @@
       <c r="J42" t="s">
         <v>3776</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K42" t="s">
+        <v>5183</v>
+      </c>
+      <c r="L42" t="s">
+        <v>5184</v>
+      </c>
+      <c r="M42" t="s">
+        <v>5185</v>
+      </c>
+      <c r="N42" t="s">
+        <v>5186</v>
+      </c>
+      <c r="O42" t="s">
+        <v>5187</v>
+      </c>
+      <c r="P42" t="s">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -16425,8 +18240,26 @@
       <c r="J43" t="s">
         <v>3777</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K43" t="s">
+        <v>5189</v>
+      </c>
+      <c r="L43" t="s">
+        <v>5190</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1419</v>
+      </c>
+      <c r="N43" t="s">
+        <v>5191</v>
+      </c>
+      <c r="O43" t="s">
+        <v>148</v>
+      </c>
+      <c r="P43" t="s">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -16451,8 +18284,26 @@
       <c r="J44" t="s">
         <v>3778</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K44" t="s">
+        <v>5193</v>
+      </c>
+      <c r="L44" t="s">
+        <v>5194</v>
+      </c>
+      <c r="M44" t="s">
+        <v>5195</v>
+      </c>
+      <c r="N44" t="s">
+        <v>5196</v>
+      </c>
+      <c r="O44" t="s">
+        <v>5197</v>
+      </c>
+      <c r="P44" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -16477,8 +18328,26 @@
       <c r="J45" t="s">
         <v>3779</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K45" t="s">
+        <v>5199</v>
+      </c>
+      <c r="L45" t="s">
+        <v>5200</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N45" t="s">
+        <v>5201</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P45" t="s">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -16503,8 +18372,26 @@
       <c r="J46" t="s">
         <v>3780</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K46" t="s">
+        <v>5203</v>
+      </c>
+      <c r="L46" t="s">
+        <v>5204</v>
+      </c>
+      <c r="M46" t="s">
+        <v>5205</v>
+      </c>
+      <c r="N46" t="s">
+        <v>5206</v>
+      </c>
+      <c r="O46" t="s">
+        <v>4991</v>
+      </c>
+      <c r="P46" t="s">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -16529,8 +18416,26 @@
       <c r="J47" t="s">
         <v>3781</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K47" t="s">
+        <v>5207</v>
+      </c>
+      <c r="L47" t="s">
+        <v>5208</v>
+      </c>
+      <c r="M47" t="s">
+        <v>5209</v>
+      </c>
+      <c r="N47" t="s">
+        <v>5210</v>
+      </c>
+      <c r="O47" t="s">
+        <v>5211</v>
+      </c>
+      <c r="P47" t="s">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -16555,8 +18460,26 @@
       <c r="J48" t="s">
         <v>3782</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K48" t="s">
+        <v>5213</v>
+      </c>
+      <c r="L48" t="s">
+        <v>5214</v>
+      </c>
+      <c r="M48" t="s">
+        <v>180</v>
+      </c>
+      <c r="N48" t="s">
+        <v>5215</v>
+      </c>
+      <c r="O48" t="s">
+        <v>5216</v>
+      </c>
+      <c r="P48" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -16581,8 +18504,26 @@
       <c r="J49" t="s">
         <v>3783</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K49" t="s">
+        <v>5218</v>
+      </c>
+      <c r="L49" t="s">
+        <v>5219</v>
+      </c>
+      <c r="M49" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" t="s">
+        <v>5220</v>
+      </c>
+      <c r="O49" t="s">
+        <v>5221</v>
+      </c>
+      <c r="P49" t="s">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -16607,8 +18548,26 @@
       <c r="J50" t="s">
         <v>3784</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K50" t="s">
+        <v>5223</v>
+      </c>
+      <c r="L50" t="s">
+        <v>5224</v>
+      </c>
+      <c r="M50" t="s">
+        <v>5225</v>
+      </c>
+      <c r="N50" t="s">
+        <v>5226</v>
+      </c>
+      <c r="O50" t="s">
+        <v>5227</v>
+      </c>
+      <c r="P50" t="s">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -16633,8 +18592,26 @@
       <c r="J51" t="s">
         <v>3785</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K51" t="s">
+        <v>5229</v>
+      </c>
+      <c r="L51" t="s">
+        <v>5230</v>
+      </c>
+      <c r="M51" t="s">
+        <v>5231</v>
+      </c>
+      <c r="N51" t="s">
+        <v>5232</v>
+      </c>
+      <c r="O51" t="s">
+        <v>5233</v>
+      </c>
+      <c r="P51" t="s">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -16659,8 +18636,26 @@
       <c r="J52" t="s">
         <v>3786</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K52" t="s">
+        <v>5235</v>
+      </c>
+      <c r="L52" t="s">
+        <v>5236</v>
+      </c>
+      <c r="M52" t="s">
+        <v>5237</v>
+      </c>
+      <c r="N52" t="s">
+        <v>5238</v>
+      </c>
+      <c r="O52" t="s">
+        <v>5239</v>
+      </c>
+      <c r="P52" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -16685,8 +18680,26 @@
       <c r="J53" t="s">
         <v>3787</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K53" t="s">
+        <v>5241</v>
+      </c>
+      <c r="L53" t="s">
+        <v>5242</v>
+      </c>
+      <c r="M53" t="s">
+        <v>5243</v>
+      </c>
+      <c r="N53" t="s">
+        <v>5244</v>
+      </c>
+      <c r="O53" t="s">
+        <v>5245</v>
+      </c>
+      <c r="P53" t="s">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -16711,8 +18724,26 @@
       <c r="J54" t="s">
         <v>3788</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K54" t="s">
+        <v>5247</v>
+      </c>
+      <c r="L54" t="s">
+        <v>5248</v>
+      </c>
+      <c r="M54" t="s">
+        <v>713</v>
+      </c>
+      <c r="N54" t="s">
+        <v>5249</v>
+      </c>
+      <c r="O54" t="s">
+        <v>5250</v>
+      </c>
+      <c r="P54" t="s">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -16737,8 +18768,26 @@
       <c r="J55" t="s">
         <v>3789</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K55" t="s">
+        <v>5252</v>
+      </c>
+      <c r="L55" t="s">
+        <v>5253</v>
+      </c>
+      <c r="M55" t="s">
+        <v>5254</v>
+      </c>
+      <c r="N55" t="s">
+        <v>5255</v>
+      </c>
+      <c r="O55" t="s">
+        <v>5256</v>
+      </c>
+      <c r="P55" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -16763,8 +18812,26 @@
       <c r="J56" t="s">
         <v>3790</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K56" t="s">
+        <v>5258</v>
+      </c>
+      <c r="L56" t="s">
+        <v>5259</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1231</v>
+      </c>
+      <c r="N56" t="s">
+        <v>5260</v>
+      </c>
+      <c r="O56" t="s">
+        <v>5261</v>
+      </c>
+      <c r="P56" t="s">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -16789,8 +18856,20 @@
       <c r="J57" t="s">
         <v>3791</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K57" t="s">
+        <v>5263</v>
+      </c>
+      <c r="L57" t="s">
+        <v>5264</v>
+      </c>
+      <c r="M57" t="s">
+        <v>5265</v>
+      </c>
+      <c r="N57" t="s">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -16815,8 +18894,20 @@
       <c r="J58" t="s">
         <v>3792</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K58" t="s">
+        <v>5267</v>
+      </c>
+      <c r="L58" t="s">
+        <v>5268</v>
+      </c>
+      <c r="M58" t="s">
+        <v>5269</v>
+      </c>
+      <c r="N58" t="s">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -16841,8 +18932,20 @@
       <c r="J59" t="s">
         <v>3793</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K59" t="s">
+        <v>5271</v>
+      </c>
+      <c r="L59" t="s">
+        <v>5272</v>
+      </c>
+      <c r="M59" t="s">
+        <v>5273</v>
+      </c>
+      <c r="N59" t="s">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -16867,8 +18970,20 @@
       <c r="J60" t="s">
         <v>3794</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K60" t="s">
+        <v>5275</v>
+      </c>
+      <c r="L60" t="s">
+        <v>5276</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="N60" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -16893,8 +19008,20 @@
       <c r="J61" t="s">
         <v>3795</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K61" t="s">
+        <v>5278</v>
+      </c>
+      <c r="L61" t="s">
+        <v>5279</v>
+      </c>
+      <c r="M61" t="s">
+        <v>5280</v>
+      </c>
+      <c r="N61" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -16919,8 +19046,20 @@
       <c r="J62" t="s">
         <v>3796</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K62" t="s">
+        <v>5282</v>
+      </c>
+      <c r="L62" t="s">
+        <v>5283</v>
+      </c>
+      <c r="M62" t="s">
+        <v>5161</v>
+      </c>
+      <c r="N62" t="s">
+        <v>5162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -16945,8 +19084,20 @@
       <c r="J63" t="s">
         <v>3797</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K63" t="s">
+        <v>5284</v>
+      </c>
+      <c r="L63" t="s">
+        <v>5285</v>
+      </c>
+      <c r="M63" t="s">
+        <v>5167</v>
+      </c>
+      <c r="N63" t="s">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -16971,8 +19122,20 @@
       <c r="J64" t="s">
         <v>3798</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K64" t="s">
+        <v>5286</v>
+      </c>
+      <c r="L64" t="s">
+        <v>5287</v>
+      </c>
+      <c r="M64" t="s">
+        <v>5288</v>
+      </c>
+      <c r="N64" t="s">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -16997,8 +19160,14 @@
       <c r="J65" t="s">
         <v>3799</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M65" t="s">
+        <v>5290</v>
+      </c>
+      <c r="N65" t="s">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -17023,8 +19192,14 @@
       <c r="J66" t="s">
         <v>3800</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M66" t="s">
+        <v>5292</v>
+      </c>
+      <c r="N66" t="s">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -17049,8 +19224,14 @@
       <c r="J67" t="s">
         <v>3801</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M67" t="s">
+        <v>5294</v>
+      </c>
+      <c r="N67" t="s">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -17073,8 +19254,14 @@
       <c r="J68" t="s">
         <v>3802</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M68" t="s">
+        <v>5031</v>
+      </c>
+      <c r="N68" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -17097,8 +19284,14 @@
       <c r="J69" t="s">
         <v>3803</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M69" t="s">
+        <v>5296</v>
+      </c>
+      <c r="N69" t="s">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -17123,8 +19316,14 @@
       <c r="J70" t="s">
         <v>3804</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M70" t="s">
+        <v>55</v>
+      </c>
+      <c r="N70" t="s">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -17147,8 +19346,14 @@
       <c r="J71" t="s">
         <v>3805</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M71" t="s">
+        <v>5299</v>
+      </c>
+      <c r="N71" t="s">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -17171,8 +19376,14 @@
       <c r="J72" t="s">
         <v>3806</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M72" t="s">
+        <v>979</v>
+      </c>
+      <c r="N72" t="s">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -17195,8 +19406,14 @@
       <c r="J73" t="s">
         <v>3807</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M73" t="s">
+        <v>5302</v>
+      </c>
+      <c r="N73" t="s">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -17219,8 +19436,14 @@
       <c r="J74" t="s">
         <v>3808</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M74" t="s">
+        <v>5110</v>
+      </c>
+      <c r="N74" t="s">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -17245,8 +19468,14 @@
       <c r="J75" t="s">
         <v>3809</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M75" t="s">
+        <v>5116</v>
+      </c>
+      <c r="N75" t="s">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -17269,8 +19498,14 @@
       <c r="J76" t="s">
         <v>3810</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M76" t="s">
+        <v>5179</v>
+      </c>
+      <c r="N76" t="s">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -17295,8 +19530,14 @@
       <c r="J77" t="s">
         <v>3811</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M77" t="s">
+        <v>5173</v>
+      </c>
+      <c r="N77" t="s">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -17321,8 +19562,14 @@
       <c r="J78" t="s">
         <v>3812</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M78" t="s">
+        <v>4981</v>
+      </c>
+      <c r="N78" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -17347,8 +19594,14 @@
       <c r="J79" t="s">
         <v>3813</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M79" t="s">
+        <v>5074</v>
+      </c>
+      <c r="N79" t="s">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -17373,8 +19626,14 @@
       <c r="J80" t="s">
         <v>3814</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M80" t="s">
+        <v>5309</v>
+      </c>
+      <c r="N80" t="s">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -17397,8 +19656,14 @@
       <c r="J81" t="s">
         <v>3815</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M81" t="s">
+        <v>737</v>
+      </c>
+      <c r="N81" t="s">
+        <v>5311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -17421,8 +19686,14 @@
       <c r="J82" t="s">
         <v>3816</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M82" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N82" t="s">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -17445,8 +19716,14 @@
       <c r="J83" t="s">
         <v>3817</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M83" t="s">
+        <v>1127</v>
+      </c>
+      <c r="N83" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -17470,7 +19747,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -17494,7 +19771,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -17518,7 +19795,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -17542,7 +19819,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -17566,7 +19843,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -17592,7 +19869,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -17616,7 +19893,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -17640,7 +19917,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -17664,7 +19941,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -17690,7 +19967,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -17716,7 +19993,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -17740,7 +20017,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -18441,7 +20718,7 @@
         <v>332</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I124" t="s">
         <v>2636</v>
@@ -18465,7 +20742,7 @@
         <v>335</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I125" t="s">
         <v>2637</v>
@@ -18489,7 +20766,7 @@
         <v>337</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I126" t="s">
         <v>2638</v>
@@ -18513,7 +20790,7 @@
         <v>339</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I127" t="s">
         <v>2639</v>
@@ -18537,7 +20814,7 @@
         <v>341</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I128" t="s">
         <v>2640</v>
@@ -18561,7 +20838,7 @@
         <v>343</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I129" t="s">
         <v>2641</v>
@@ -18585,7 +20862,7 @@
         <v>345</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I130" t="s">
         <v>2642</v>
@@ -18609,7 +20886,7 @@
         <v>347</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I131" t="s">
         <v>2643</v>
@@ -18633,7 +20910,7 @@
         <v>349</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I132" t="s">
         <v>2644</v>
@@ -18657,7 +20934,7 @@
         <v>351</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I133" t="s">
         <v>2645</v>
@@ -18681,7 +20958,7 @@
         <v>353</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I134" t="s">
         <v>2646</v>
@@ -18705,7 +20982,7 @@
         <v>355</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I135" t="s">
         <v>2647</v>
@@ -18729,7 +21006,7 @@
         <v>357</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I136" t="s">
         <v>2648</v>
@@ -18753,7 +21030,7 @@
         <v>359</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I137" t="s">
         <v>2649</v>
@@ -18777,7 +21054,7 @@
         <v>361</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I138" t="s">
         <v>2650</v>
@@ -18801,7 +21078,7 @@
         <v>363</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I139" t="s">
         <v>2651</v>
@@ -18825,7 +21102,7 @@
         <v>365</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I140" t="s">
         <v>2652</v>
@@ -18849,7 +21126,7 @@
         <v>367</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I141" t="s">
         <v>2653</v>
@@ -18873,7 +21150,7 @@
         <v>369</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I142" t="s">
         <v>2654</v>
@@ -18897,7 +21174,7 @@
         <v>371</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I143" t="s">
         <v>2655</v>
@@ -18921,7 +21198,7 @@
         <v>373</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I144" t="s">
         <v>2656</v>
@@ -18945,7 +21222,7 @@
         <v>375</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I145" t="s">
         <v>2657</v>
@@ -18969,7 +21246,7 @@
         <v>377</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I146" t="s">
         <v>2658</v>
@@ -18993,7 +21270,7 @@
         <v>379</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I147" t="s">
         <v>2659</v>
@@ -19017,7 +21294,7 @@
         <v>381</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I148" t="s">
         <v>2660</v>
@@ -19041,7 +21318,7 @@
         <v>383</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I149" t="s">
         <v>2661</v>
@@ -19065,7 +21342,7 @@
         <v>385</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I150" t="s">
         <v>2662</v>
@@ -19089,7 +21366,7 @@
         <v>387</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="I151" t="s">
         <v>2663</v>
@@ -24297,7 +26574,7 @@
         <v>817</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I368" t="s">
         <v>2880</v>
@@ -24321,7 +26598,7 @@
         <v>820</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I369" t="s">
         <v>2881</v>
@@ -24345,7 +26622,7 @@
         <v>822</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I370" t="s">
         <v>2882</v>
@@ -24369,7 +26646,7 @@
         <v>824</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I371" t="s">
         <v>2883</v>
@@ -24393,7 +26670,7 @@
         <v>826</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I372" t="s">
         <v>2884</v>
@@ -24417,7 +26694,7 @@
         <v>828</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I373" t="s">
         <v>2885</v>
@@ -24441,7 +26718,7 @@
         <v>830</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I374" t="s">
         <v>2886</v>
@@ -24465,7 +26742,7 @@
         <v>832</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I375" t="s">
         <v>2887</v>
@@ -24489,7 +26766,7 @@
         <v>834</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I376" t="s">
         <v>2888</v>
@@ -24513,7 +26790,7 @@
         <v>836</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I377" t="s">
         <v>2889</v>
@@ -24537,7 +26814,7 @@
         <v>838</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I378" t="s">
         <v>2890</v>
@@ -24561,7 +26838,7 @@
         <v>840</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I379" t="s">
         <v>2891</v>
@@ -24585,7 +26862,7 @@
         <v>842</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I380" t="s">
         <v>2892</v>
@@ -24609,7 +26886,7 @@
         <v>844</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I381" t="s">
         <v>2893</v>
@@ -24633,7 +26910,7 @@
         <v>846</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I382" t="s">
         <v>2894</v>
@@ -24657,7 +26934,7 @@
         <v>848</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I383" t="s">
         <v>2895</v>
@@ -24681,7 +26958,7 @@
         <v>850</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I384" t="s">
         <v>2896</v>
@@ -24705,7 +26982,7 @@
         <v>852</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I385" t="s">
         <v>2897</v>
@@ -24729,7 +27006,7 @@
         <v>854</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I386" t="s">
         <v>2898</v>
@@ -24753,7 +27030,7 @@
         <v>856</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I387" t="s">
         <v>2899</v>
@@ -24777,7 +27054,7 @@
         <v>858</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I388" t="s">
         <v>2900</v>
@@ -24801,7 +27078,7 @@
         <v>860</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I389" t="s">
         <v>2901</v>
@@ -24825,7 +27102,7 @@
         <v>862</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I390" t="s">
         <v>2902</v>
@@ -24849,7 +27126,7 @@
         <v>864</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I391" t="s">
         <v>2903</v>
@@ -24873,7 +27150,7 @@
         <v>866</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I392" t="s">
         <v>2904</v>
@@ -24897,7 +27174,7 @@
         <v>868</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I393" t="s">
         <v>2905</v>
@@ -24921,7 +27198,7 @@
         <v>870</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I394" t="s">
         <v>2906</v>
@@ -24945,7 +27222,7 @@
         <v>872</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I395" t="s">
         <v>2907</v>
@@ -24969,7 +27246,7 @@
         <v>874</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I396" t="s">
         <v>2908</v>
@@ -24993,7 +27270,7 @@
         <v>876</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I397" t="s">
         <v>2909</v>
@@ -25017,7 +27294,7 @@
         <v>878</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I398" t="s">
         <v>2910</v>
@@ -25041,7 +27318,7 @@
         <v>880</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I399" t="s">
         <v>2911</v>
@@ -25065,7 +27342,7 @@
         <v>882</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I400" t="s">
         <v>2912</v>
@@ -25089,7 +27366,7 @@
         <v>884</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>818</v>
+        <v>333</v>
       </c>
       <c r="I401" t="s">
         <v>2913</v>
@@ -31809,7 +34086,7 @@
         <v>1444</v>
       </c>
       <c r="H681" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I681" t="s">
         <v>3193</v>
@@ -31833,7 +34110,7 @@
         <v>1447</v>
       </c>
       <c r="H682" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I682" t="s">
         <v>3194</v>
@@ -31857,7 +34134,7 @@
         <v>1449</v>
       </c>
       <c r="H683" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I683" t="s">
         <v>3195</v>
@@ -31881,7 +34158,7 @@
         <v>1451</v>
       </c>
       <c r="H684" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I684" t="s">
         <v>3196</v>
@@ -31905,7 +34182,7 @@
         <v>1453</v>
       </c>
       <c r="H685" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I685" t="s">
         <v>3197</v>
@@ -31929,7 +34206,7 @@
         <v>1455</v>
       </c>
       <c r="H686" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I686" t="s">
         <v>3198</v>
@@ -31953,7 +34230,7 @@
         <v>1457</v>
       </c>
       <c r="H687" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I687" t="s">
         <v>3199</v>
@@ -31977,7 +34254,7 @@
         <v>1459</v>
       </c>
       <c r="H688" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I688" t="s">
         <v>3200</v>
@@ -32001,7 +34278,7 @@
         <v>1461</v>
       </c>
       <c r="H689" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I689" t="s">
         <v>3201</v>
@@ -32025,7 +34302,7 @@
         <v>1463</v>
       </c>
       <c r="H690" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I690" t="s">
         <v>3202</v>
@@ -32049,7 +34326,7 @@
         <v>1465</v>
       </c>
       <c r="H691" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I691" t="s">
         <v>3203</v>
@@ -32073,7 +34350,7 @@
         <v>1467</v>
       </c>
       <c r="H692" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I692" t="s">
         <v>3204</v>
@@ -32097,7 +34374,7 @@
         <v>1469</v>
       </c>
       <c r="H693" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I693" t="s">
         <v>3205</v>
@@ -32121,7 +34398,7 @@
         <v>1471</v>
       </c>
       <c r="H694" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I694" t="s">
         <v>3206</v>
@@ -32145,7 +34422,7 @@
         <v>1473</v>
       </c>
       <c r="H695" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I695" t="s">
         <v>3207</v>
@@ -32169,7 +34446,7 @@
         <v>1475</v>
       </c>
       <c r="H696" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I696" t="s">
         <v>3208</v>
@@ -32193,7 +34470,7 @@
         <v>1477</v>
       </c>
       <c r="H697" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I697" t="s">
         <v>3209</v>
@@ -32217,7 +34494,7 @@
         <v>1479</v>
       </c>
       <c r="H698" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I698" t="s">
         <v>3210</v>
@@ -32241,7 +34518,7 @@
         <v>1481</v>
       </c>
       <c r="H699" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I699" t="s">
         <v>3211</v>
@@ -32265,7 +34542,7 @@
         <v>1483</v>
       </c>
       <c r="H700" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I700" t="s">
         <v>3212</v>
@@ -32289,7 +34566,7 @@
         <v>1485</v>
       </c>
       <c r="H701" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I701" t="s">
         <v>3213</v>
@@ -32313,7 +34590,7 @@
         <v>1487</v>
       </c>
       <c r="H702" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I702" t="s">
         <v>3214</v>
@@ -32337,7 +34614,7 @@
         <v>1489</v>
       </c>
       <c r="H703" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I703" t="s">
         <v>3215</v>
@@ -32361,7 +34638,7 @@
         <v>1491</v>
       </c>
       <c r="H704" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I704" t="s">
         <v>3216</v>
@@ -32385,7 +34662,7 @@
         <v>1493</v>
       </c>
       <c r="H705" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I705" t="s">
         <v>3217</v>
@@ -32409,7 +34686,7 @@
         <v>1495</v>
       </c>
       <c r="H706" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I706" t="s">
         <v>3218</v>
@@ -32433,7 +34710,7 @@
         <v>1497</v>
       </c>
       <c r="H707" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I707" t="s">
         <v>3219</v>
@@ -32457,7 +34734,7 @@
         <v>1499</v>
       </c>
       <c r="H708" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I708" t="s">
         <v>3220</v>
@@ -32481,7 +34758,7 @@
         <v>1501</v>
       </c>
       <c r="H709" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I709" t="s">
         <v>3221</v>
@@ -32505,7 +34782,7 @@
         <v>1503</v>
       </c>
       <c r="H710" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I710" t="s">
         <v>3222</v>
@@ -32529,7 +34806,7 @@
         <v>1505</v>
       </c>
       <c r="H711" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I711" t="s">
         <v>3223</v>
@@ -32553,7 +34830,7 @@
         <v>1507</v>
       </c>
       <c r="H712" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I712" t="s">
         <v>3224</v>
@@ -32577,7 +34854,7 @@
         <v>1509</v>
       </c>
       <c r="H713" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I713" t="s">
         <v>3225</v>
@@ -32601,7 +34878,7 @@
         <v>1511</v>
       </c>
       <c r="H714" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I714" t="s">
         <v>3226</v>
@@ -32625,7 +34902,7 @@
         <v>1513</v>
       </c>
       <c r="H715" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I715" t="s">
         <v>3227</v>
@@ -32649,7 +34926,7 @@
         <v>1515</v>
       </c>
       <c r="H716" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I716" t="s">
         <v>3228</v>
@@ -32673,7 +34950,7 @@
         <v>1517</v>
       </c>
       <c r="H717" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I717" t="s">
         <v>3229</v>
@@ -32697,7 +34974,7 @@
         <v>1519</v>
       </c>
       <c r="H718" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I718" t="s">
         <v>3230</v>
@@ -32721,7 +34998,7 @@
         <v>1521</v>
       </c>
       <c r="H719" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I719" t="s">
         <v>3231</v>
@@ -32745,7 +35022,7 @@
         <v>1523</v>
       </c>
       <c r="H720" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I720" t="s">
         <v>3232</v>
@@ -32769,7 +35046,7 @@
         <v>1525</v>
       </c>
       <c r="H721" s="1" t="s">
-        <v>1445</v>
+        <v>818</v>
       </c>
       <c r="I721" t="s">
         <v>3233</v>

--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="5314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6601" uniqueCount="5125">
   <si>
     <t>番号</t>
   </si>
@@ -14909,1066 +14909,520 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>quickly</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>busy</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>carefully</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>carelessly</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>loudly</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>quietly</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>generally</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>play sports</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>take a walk</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>forwards</t>
+  </si>
+  <si>
+    <t>take a bath/shower</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>backwards</t>
+  </si>
+  <si>
+    <t>brush teeth</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>upstairs</t>
+  </si>
+  <si>
+    <t>wash hands/face</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>downstairs</t>
+  </si>
+  <si>
+    <t>ride a bike</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>catch a cold</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>get up</t>
+  </si>
+  <si>
+    <t>everywhere</t>
+  </si>
+  <si>
+    <t>go to bed</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>turn on/off (lights)</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>play video games</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>cook dinner</t>
+  </si>
+  <si>
+    <t>careless</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>read a book</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>annually</t>
+  </si>
+  <si>
+    <t>write a letter</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>suddenly</t>
+  </si>
+  <si>
+    <t>draw a picture</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>sing a song</t>
+  </si>
+  <si>
+    <t>listen to music</t>
+  </si>
+  <si>
+    <t>surprised</t>
+  </si>
+  <si>
+    <t>naturally</t>
+  </si>
+  <si>
+    <t>watch TV</t>
+  </si>
+  <si>
+    <t>talk on the phone</t>
+  </si>
+  <si>
+    <t>exciting</t>
+  </si>
+  <si>
+    <t>work on homework</t>
+  </si>
+  <si>
+    <t>old-fashioned</t>
+  </si>
+  <si>
+    <t>anxiously</t>
+  </si>
+  <si>
+    <t>travel abroad</t>
+  </si>
+  <si>
+    <t>patiently</t>
+  </si>
+  <si>
+    <t>shop for clothes</t>
+  </si>
+  <si>
+    <t>eagerly</t>
+  </si>
+  <si>
+    <t>help with homework</t>
+  </si>
+  <si>
+    <t>progressive</t>
+  </si>
+  <si>
+    <t>reluctantly</t>
+  </si>
+  <si>
+    <t>meet friends</t>
+  </si>
+  <si>
+    <t>futuristic</t>
+  </si>
+  <si>
+    <t>regularly</t>
+  </si>
+  <si>
+    <t>visit a museum</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>casually</t>
+  </si>
+  <si>
+    <t>play soccer</t>
+  </si>
+  <si>
+    <t>unreliable</t>
+  </si>
+  <si>
+    <t>happily</t>
+  </si>
+  <si>
+    <t>take a nap</t>
+  </si>
+  <si>
+    <t>sadly</t>
+  </si>
+  <si>
+    <t>take a shower</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>angrily</t>
+  </si>
+  <si>
+    <t>brush hair</t>
+  </si>
+  <si>
+    <t>calmly</t>
+  </si>
+  <si>
+    <t>wash dishes</t>
+  </si>
+  <si>
+    <t>dishonest</t>
+  </si>
+  <si>
+    <t>ride the bus</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>drive a car</t>
+  </si>
+  <si>
+    <t>stingy</t>
+  </si>
+  <si>
+    <t>fly a kite</t>
+  </si>
+  <si>
+    <t>catch a bus/train</t>
+  </si>
+  <si>
+    <t>impatient</t>
+  </si>
+  <si>
+    <t>get dressed</t>
+  </si>
+  <si>
+    <t>go fishing</t>
+  </si>
+  <si>
+    <t>turn on/off (computer)</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t>unfamiliar</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>unhealthy</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>unpopular</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>動詞</t>
+    <rPh sb="0" eb="2">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>形容詞</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>副詞</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>遊ぶ、演奏する</t>
+    <rPh sb="0" eb="2">
+      <t>フクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>happy</t>
-  </si>
-  <si>
-    <t>幸せな、嬉しい</t>
-  </si>
-  <si>
-    <t>quickly</t>
-  </si>
-  <si>
-    <t>速く、すばやく</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>勉強する</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>悲しい</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>ゆっくりと、遅く</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>料理する</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>面白い</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>上手に、うまく</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>掃除する</t>
-  </si>
-  <si>
-    <t>busy</t>
-  </si>
-  <si>
-    <t>忙しい</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>悪く、まずく</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>書く</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>疲れた、疲れている</t>
-  </si>
-  <si>
-    <t>carefully</t>
-  </si>
-  <si>
-    <t>注意深く、慎重に</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>読む</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>暑い</t>
-  </si>
-  <si>
-    <t>carelessly</t>
-  </si>
-  <si>
-    <t>不注意に、軽率に</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>走る</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>寒い</t>
-  </si>
-  <si>
-    <t>loudly</t>
-  </si>
-  <si>
-    <t>大声で、うるさい</t>
-  </si>
-  <si>
-    <t>swim</t>
-  </si>
-  <si>
-    <t>泳ぐ</t>
-  </si>
-  <si>
-    <t>hungry</t>
-  </si>
-  <si>
-    <t>お腹が空いた、飢えている</t>
-  </si>
-  <si>
-    <t>quietly</t>
-  </si>
-  <si>
-    <t>静かに、そっと</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>食べる</t>
-  </si>
-  <si>
-    <t>thirsty</t>
-  </si>
-  <si>
-    <t>のどが渇いた</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>一生懸命に、熱心に</t>
-  </si>
-  <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>飲む</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>良い、良好な</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>簡単に、容易に</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>寝る</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>悪い、良くない</t>
-  </si>
-  <si>
-    <t>often</t>
-  </si>
-  <si>
-    <t>よく、しばしば</t>
-  </si>
-  <si>
-    <t>dance</t>
-  </si>
-  <si>
-    <t>踊る</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>面白い、興味深い</t>
-  </si>
-  <si>
-    <t>sometimes</t>
-  </si>
-  <si>
-    <t>時々、ときどき</t>
-  </si>
-  <si>
-    <t>sing</t>
-  </si>
-  <si>
-    <t>歌う</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>難しい</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>いつも、常に</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>聞く（音楽などを）</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>簡単な、易しい</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>決して～ない、全く～ない</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>見る（映画やテレビなどを）</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>小さい、小さな</t>
-  </si>
-  <si>
-    <t>めったに～ない、滅多に～ない</t>
-  </si>
-  <si>
-    <t>talk</t>
-  </si>
-  <si>
-    <t>話す</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>大きい、大きな</t>
-  </si>
-  <si>
-    <t>大部分は、主に</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>働く</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>古い、年をとった</t>
-  </si>
-  <si>
-    <t>generally</t>
-  </si>
-  <si>
-    <t>一般的に、普通は</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>旅行する</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>新しい</t>
-  </si>
-  <si>
-    <t>時折、たまに</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>買い物をする</t>
-  </si>
-  <si>
-    <t>きれいな、清潔な</t>
-  </si>
-  <si>
-    <t>頻繁に、しばしば</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>待つ</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>汚い</t>
-  </si>
-  <si>
-    <t>めったに～ない、稀に～ない</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>助ける、手伝う</t>
-  </si>
-  <si>
-    <t>快適な</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>近いうちに、すぐに</t>
-  </si>
-  <si>
-    <t>meet</t>
-  </si>
-  <si>
-    <t>会う</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>静かな</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>遅く、遅れて</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>訪れる</t>
-  </si>
-  <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>騒がしい、うるさい</t>
-  </si>
-  <si>
-    <t>early</t>
-  </si>
-  <si>
-    <t>早く、早い</t>
-  </si>
-  <si>
-    <t>高価な、高い</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>一緒に、共に</t>
-  </si>
-  <si>
-    <t>play sports</t>
-  </si>
-  <si>
-    <t>スポーツをする</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>安い</t>
-  </si>
-  <si>
-    <t>離れて、ばらばらに</t>
-  </si>
-  <si>
-    <t>take a walk</t>
-  </si>
-  <si>
-    <t>散歩する</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>おいしい</t>
-  </si>
-  <si>
-    <t>forwards</t>
-  </si>
-  <si>
-    <t>前へ、前方に</t>
-  </si>
-  <si>
-    <t>take a bath/shower</t>
-  </si>
-  <si>
-    <t>風呂に入る</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>美しい</t>
-  </si>
-  <si>
-    <t>backwards</t>
-  </si>
-  <si>
-    <t>後ろへ、後方に</t>
-  </si>
-  <si>
-    <t>brush teeth</t>
-  </si>
-  <si>
-    <t>歯を磨く</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>醜い</t>
-  </si>
-  <si>
-    <t>upstairs</t>
-  </si>
-  <si>
-    <t>上の階へ、階上に</t>
-  </si>
-  <si>
-    <t>wash hands/face</t>
-  </si>
-  <si>
-    <t>手や顔を洗う</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>優しい、親切な</t>
-  </si>
-  <si>
-    <t>downstairs</t>
-  </si>
-  <si>
-    <t>下の階へ、階下に</t>
-  </si>
-  <si>
-    <t>ride a bike</t>
-  </si>
-  <si>
-    <t>自転車に乗る</t>
-  </si>
-  <si>
-    <t>意地悪な、卑劣な</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>周りに、周囲に</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>運転する</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>賢い、頭の良い</t>
-  </si>
-  <si>
-    <t>外国へ、海外に</t>
-  </si>
-  <si>
-    <t>fly</t>
-  </si>
-  <si>
-    <t>飛ぶ、飛行機で行く</t>
-  </si>
-  <si>
-    <t>愚かな、バカな</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>ここに、こちらに</t>
-  </si>
-  <si>
-    <t>catch a cold</t>
-  </si>
-  <si>
-    <t>風邪をひく</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>そこに、あそこに</t>
-  </si>
-  <si>
-    <t>get up</t>
-  </si>
-  <si>
-    <t>起きる</t>
-  </si>
-  <si>
-    <t>everywhere</t>
-  </si>
-  <si>
-    <t>どこにでも、至る所に</t>
-  </si>
-  <si>
-    <t>go to bed</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>速い、早い</t>
-  </si>
-  <si>
-    <t>どこにも～ない、どこでも～ない</t>
-  </si>
-  <si>
-    <t>turn on/off (lights)</t>
-  </si>
-  <si>
-    <t>照明をつける／消す</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>遅い</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>毎日、日々</t>
-  </si>
-  <si>
-    <t>play video games</t>
-  </si>
-  <si>
-    <t>ビデオゲームをする</t>
-  </si>
-  <si>
-    <t>careful</t>
-  </si>
-  <si>
-    <t>注意深い、慎重な</t>
-  </si>
-  <si>
-    <t>weekly</t>
-  </si>
-  <si>
-    <t>毎週、週に一度</t>
-  </si>
-  <si>
-    <t>cook dinner</t>
-  </si>
-  <si>
-    <t>夕食を作る</t>
-  </si>
-  <si>
-    <t>careless</t>
-  </si>
-  <si>
-    <t>不注意な、軽率な</t>
-  </si>
-  <si>
-    <t>monthly</t>
-  </si>
-  <si>
-    <t>月ごとに、毎月</t>
-  </si>
-  <si>
-    <t>read a book</t>
-  </si>
-  <si>
-    <t>本を読む</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>危険な</t>
-  </si>
-  <si>
-    <t>annually</t>
-  </si>
-  <si>
-    <t>年に一度、毎年</t>
-  </si>
-  <si>
-    <t>write a letter</t>
-  </si>
-  <si>
-    <t>手紙を書く</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>安全な</t>
-  </si>
-  <si>
-    <t>suddenly</t>
-  </si>
-  <si>
-    <t>突然に、急に</t>
-  </si>
-  <si>
-    <t>draw a picture</t>
-  </si>
-  <si>
-    <t>絵を描く</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>勇敢な、勇ましい</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>最終的に、ついに</t>
-  </si>
-  <si>
-    <t>sing a song</t>
-  </si>
-  <si>
-    <t>歌を歌う</t>
-  </si>
-  <si>
-    <t>恐れている、怖い</t>
-  </si>
-  <si>
-    <t>直ちに、すぐに</t>
-  </si>
-  <si>
-    <t>listen to music</t>
-  </si>
-  <si>
-    <t>音楽を聴く</t>
-  </si>
-  <si>
-    <t>surprised</t>
-  </si>
-  <si>
-    <t>驚いた、びっくりした</t>
-  </si>
-  <si>
-    <t>naturally</t>
-  </si>
-  <si>
-    <t>自然に、当然に</t>
-  </si>
-  <si>
-    <t>watch TV</t>
-  </si>
-  <si>
-    <t>テレビを見る</t>
-  </si>
-  <si>
-    <t>退屈した、飽きた</t>
-  </si>
-  <si>
-    <t>普通に、通常は</t>
-  </si>
-  <si>
-    <t>talk on the phone</t>
-  </si>
-  <si>
-    <t>電話で話す</t>
-  </si>
-  <si>
-    <t>exciting</t>
-  </si>
-  <si>
-    <t>興奮させる、刺激的な</t>
-  </si>
-  <si>
-    <t>work on homework</t>
-  </si>
-  <si>
-    <t>宿題をする</t>
-  </si>
-  <si>
-    <t>old-fashioned</t>
-  </si>
-  <si>
-    <t>時代遅れの、古風な</t>
-  </si>
-  <si>
-    <t>anxiously</t>
-  </si>
-  <si>
-    <t>心配して、不安そうに</t>
-  </si>
-  <si>
-    <t>travel abroad</t>
-  </si>
-  <si>
-    <t>海外に旅行する</t>
-  </si>
-  <si>
-    <t>現代の、モダンな</t>
-  </si>
-  <si>
-    <t>patiently</t>
-  </si>
-  <si>
-    <t>辛抱強く、忍耐強く</t>
-  </si>
-  <si>
-    <t>shop for clothes</t>
-  </si>
-  <si>
-    <t>服を買い物する</t>
-  </si>
-  <si>
-    <t>伝統的な、伝統に固執した</t>
-  </si>
-  <si>
-    <t>eagerly</t>
-  </si>
-  <si>
-    <t>熱心に、熱望して</t>
-  </si>
-  <si>
-    <t>help with homework</t>
-  </si>
-  <si>
-    <t>宿題を手伝う</t>
-  </si>
-  <si>
-    <t>progressive</t>
-  </si>
-  <si>
-    <t>進歩的な、前進的な</t>
-  </si>
-  <si>
-    <t>reluctantly</t>
-  </si>
-  <si>
-    <t>いやいやながら、しぶしぶ</t>
-  </si>
-  <si>
-    <t>meet friends</t>
-  </si>
-  <si>
-    <t>友達に会う</t>
-  </si>
-  <si>
-    <t>futuristic</t>
-  </si>
-  <si>
-    <t>未来的な、将来の</t>
-  </si>
-  <si>
-    <t>regularly</t>
-  </si>
-  <si>
-    <t>定期的に、規則的に</t>
-  </si>
-  <si>
-    <t>visit a museum</t>
-  </si>
-  <si>
-    <t>博物館を訪れる</t>
-  </si>
-  <si>
-    <t>reliable</t>
-  </si>
-  <si>
-    <t>信頼できる、頼りになる</t>
-  </si>
-  <si>
-    <t>casually</t>
-  </si>
-  <si>
-    <t>何気なく、さりげなく</t>
-  </si>
-  <si>
-    <t>play soccer</t>
-  </si>
-  <si>
-    <t>サッカーをする</t>
-  </si>
-  <si>
-    <t>unreliable</t>
-  </si>
-  <si>
-    <t>信頼できない、頼りにならない</t>
-  </si>
-  <si>
-    <t>happily</t>
-  </si>
-  <si>
-    <t>幸せそうに、喜んで</t>
-  </si>
-  <si>
-    <t>take a nap</t>
-  </si>
-  <si>
-    <t>昼寝をする</t>
-  </si>
-  <si>
-    <t>礼儀正しい、丁寧な</t>
-  </si>
-  <si>
-    <t>sadly</t>
-  </si>
-  <si>
-    <t>悲しそうに、悲しく</t>
-  </si>
-  <si>
-    <t>take a shower</t>
-  </si>
-  <si>
-    <t>シャワーを浴びる</t>
-  </si>
-  <si>
-    <t>rude</t>
-  </si>
-  <si>
-    <t>無礼な、失礼な</t>
-  </si>
-  <si>
-    <t>angrily</t>
-  </si>
-  <si>
-    <t>怒って、立腹して</t>
-  </si>
-  <si>
-    <t>brush hair</t>
-  </si>
-  <si>
-    <t>髪をブラシでとかす</t>
-  </si>
-  <si>
-    <t>正直な、誠実な</t>
-  </si>
-  <si>
-    <t>calmly</t>
-  </si>
-  <si>
-    <t>穏やかに、落ち着いて</t>
-  </si>
-  <si>
-    <t>wash dishes</t>
-  </si>
-  <si>
-    <t>皿を洗う</t>
-  </si>
-  <si>
-    <t>dishonest</t>
-  </si>
-  <si>
-    <t>不正直な、不誠実な</t>
-  </si>
-  <si>
-    <t>ride the bus</t>
-  </si>
-  <si>
-    <t>バスに乗る</t>
-  </si>
-  <si>
-    <t>generous</t>
-  </si>
-  <si>
-    <t>寛大な、気前の良い</t>
-  </si>
-  <si>
-    <t>drive a car</t>
-  </si>
-  <si>
-    <t>車を運転する</t>
-  </si>
-  <si>
-    <t>stingy</t>
-  </si>
-  <si>
-    <t>けちな、欲張りな</t>
-  </si>
-  <si>
-    <t>fly a kite</t>
-  </si>
-  <si>
-    <t>凧を揚げる</t>
-  </si>
-  <si>
-    <t>忍耐強い、我慢強い</t>
-  </si>
-  <si>
-    <t>catch a bus/train</t>
-  </si>
-  <si>
-    <t>バス／電車に乗る</t>
-  </si>
-  <si>
-    <t>impatient</t>
-  </si>
-  <si>
-    <t>我慢できない、せっかちな</t>
-  </si>
-  <si>
-    <t>get dressed</t>
-  </si>
-  <si>
-    <t>着替える</t>
-  </si>
-  <si>
-    <t>go fishing</t>
-  </si>
-  <si>
-    <t>釣りに行く</t>
-  </si>
-  <si>
-    <t>turn on/off (computer)</t>
-  </si>
-  <si>
-    <t>コンピューターをつける／消す</t>
-  </si>
-  <si>
-    <t>familiar</t>
-  </si>
-  <si>
-    <t>身近な、馴染みのある</t>
-  </si>
-  <si>
-    <t>unfamiliar</t>
-  </si>
-  <si>
-    <t>不慣れな、見慣れない</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>健康な、健全な</t>
-  </si>
-  <si>
-    <t>unhealthy</t>
-  </si>
-  <si>
-    <t>不健康な</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>退屈な、つまらない</t>
-  </si>
-  <si>
-    <t>快適な、心地よい</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>不快な、不安な</t>
-  </si>
-  <si>
-    <t>人気のある、流行の</t>
-  </si>
-  <si>
-    <t>unpopular</t>
-  </si>
-  <si>
-    <t>不人気の、流行らない</t>
-  </si>
-  <si>
-    <t>美しい、美麗な</t>
-  </si>
-  <si>
-    <t>醜い、不美しい</t>
-  </si>
-  <si>
-    <t>安全な、危険のない</t>
-  </si>
-  <si>
-    <t>危険な、危険がある</t>
-  </si>
-  <si>
-    <t>汚い、汚れた</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>簡単な、シンプルな</t>
-  </si>
-  <si>
-    <t>複雑な、複合的な</t>
-  </si>
-  <si>
-    <t>優しい、穏やかな</t>
-  </si>
-  <si>
-    <t>荒々しい、粗野な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品詞</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -16356,10 +15810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1223"/>
+  <dimension ref="A1:L1223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16376,7 +15830,7 @@
     <col min="16" max="16" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16402,16 +15856,13 @@
         <v>4958</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4960</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4961</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4962</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5124</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16437,25 +15888,13 @@
         <v>3736</v>
       </c>
       <c r="K2" t="s">
-        <v>4963</v>
+        <v>4960</v>
       </c>
       <c r="L2" t="s">
-        <v>4964</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4965</v>
-      </c>
-      <c r="N2" t="s">
-        <v>4966</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4967</v>
-      </c>
-      <c r="P2" t="s">
-        <v>4968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16481,25 +15920,13 @@
         <v>3737</v>
       </c>
       <c r="K3" t="s">
-        <v>4969</v>
+        <v>4962</v>
       </c>
       <c r="L3" t="s">
-        <v>4970</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4971</v>
-      </c>
-      <c r="N3" t="s">
-        <v>4972</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4973</v>
-      </c>
-      <c r="P3" t="s">
-        <v>4974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -16525,25 +15952,13 @@
         <v>3738</v>
       </c>
       <c r="K4" t="s">
-        <v>4975</v>
+        <v>4965</v>
       </c>
       <c r="L4" t="s">
-        <v>4976</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4977</v>
-      </c>
-      <c r="N4" t="s">
-        <v>4978</v>
-      </c>
-      <c r="O4" t="s">
-        <v>4979</v>
-      </c>
-      <c r="P4" t="s">
-        <v>4980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16569,25 +15984,13 @@
         <v>3739</v>
       </c>
       <c r="K5" t="s">
-        <v>4981</v>
+        <v>4968</v>
       </c>
       <c r="L5" t="s">
-        <v>4982</v>
-      </c>
-      <c r="M5" t="s">
-        <v>4983</v>
-      </c>
-      <c r="N5" t="s">
-        <v>4984</v>
-      </c>
-      <c r="O5" t="s">
-        <v>4985</v>
-      </c>
-      <c r="P5" t="s">
-        <v>4986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -16613,25 +16016,13 @@
         <v>3740</v>
       </c>
       <c r="K6" t="s">
-        <v>4987</v>
+        <v>4971</v>
       </c>
       <c r="L6" t="s">
-        <v>4988</v>
-      </c>
-      <c r="M6" t="s">
-        <v>4989</v>
-      </c>
-      <c r="N6" t="s">
-        <v>4990</v>
-      </c>
-      <c r="O6" t="s">
-        <v>4991</v>
-      </c>
-      <c r="P6" t="s">
-        <v>4992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -16657,25 +16048,13 @@
         <v>3741</v>
       </c>
       <c r="K7" t="s">
-        <v>4993</v>
+        <v>4974</v>
       </c>
       <c r="L7" t="s">
-        <v>4994</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4995</v>
-      </c>
-      <c r="N7" t="s">
-        <v>4996</v>
-      </c>
-      <c r="O7" t="s">
-        <v>4997</v>
-      </c>
-      <c r="P7" t="s">
-        <v>4998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -16701,25 +16080,13 @@
         <v>3742</v>
       </c>
       <c r="K8" t="s">
-        <v>4999</v>
+        <v>4977</v>
       </c>
       <c r="L8" t="s">
-        <v>5000</v>
-      </c>
-      <c r="M8" t="s">
-        <v>5001</v>
-      </c>
-      <c r="N8" t="s">
-        <v>5002</v>
-      </c>
-      <c r="O8" t="s">
-        <v>5003</v>
-      </c>
-      <c r="P8" t="s">
-        <v>5004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -16745,25 +16112,13 @@
         <v>3743</v>
       </c>
       <c r="K9" t="s">
-        <v>5005</v>
+        <v>4980</v>
       </c>
       <c r="L9" t="s">
-        <v>5006</v>
-      </c>
-      <c r="M9" t="s">
-        <v>5007</v>
-      </c>
-      <c r="N9" t="s">
-        <v>5008</v>
-      </c>
-      <c r="O9" t="s">
-        <v>5009</v>
-      </c>
-      <c r="P9" t="s">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -16789,25 +16144,13 @@
         <v>3744</v>
       </c>
       <c r="K10" t="s">
-        <v>5011</v>
+        <v>4983</v>
       </c>
       <c r="L10" t="s">
-        <v>5012</v>
-      </c>
-      <c r="M10" t="s">
-        <v>5013</v>
-      </c>
-      <c r="N10" t="s">
-        <v>5014</v>
-      </c>
-      <c r="O10" t="s">
-        <v>5015</v>
-      </c>
-      <c r="P10" t="s">
-        <v>5016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -16833,25 +16176,13 @@
         <v>3745</v>
       </c>
       <c r="K11" t="s">
-        <v>5017</v>
+        <v>4986</v>
       </c>
       <c r="L11" t="s">
-        <v>5018</v>
-      </c>
-      <c r="M11" t="s">
-        <v>5019</v>
-      </c>
-      <c r="N11" t="s">
-        <v>5020</v>
-      </c>
-      <c r="O11" t="s">
-        <v>5021</v>
-      </c>
-      <c r="P11" t="s">
-        <v>5022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -16877,25 +16208,13 @@
         <v>3746</v>
       </c>
       <c r="K12" t="s">
-        <v>5023</v>
+        <v>4989</v>
       </c>
       <c r="L12" t="s">
-        <v>5024</v>
-      </c>
-      <c r="M12" t="s">
-        <v>5025</v>
-      </c>
-      <c r="N12" t="s">
-        <v>5026</v>
-      </c>
-      <c r="O12" t="s">
-        <v>5027</v>
-      </c>
-      <c r="P12" t="s">
-        <v>5028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -16921,25 +16240,13 @@
         <v>3747</v>
       </c>
       <c r="K13" t="s">
-        <v>5029</v>
+        <v>4992</v>
       </c>
       <c r="L13" t="s">
-        <v>5030</v>
-      </c>
-      <c r="M13" t="s">
-        <v>5031</v>
-      </c>
-      <c r="N13" t="s">
-        <v>5032</v>
-      </c>
-      <c r="O13" t="s">
-        <v>5033</v>
-      </c>
-      <c r="P13" t="s">
-        <v>5034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16965,25 +16272,13 @@
         <v>3748</v>
       </c>
       <c r="K14" t="s">
-        <v>5035</v>
+        <v>4995</v>
       </c>
       <c r="L14" t="s">
-        <v>5036</v>
-      </c>
-      <c r="M14" t="s">
-        <v>5037</v>
-      </c>
-      <c r="N14" t="s">
-        <v>5038</v>
-      </c>
-      <c r="O14" t="s">
-        <v>5039</v>
-      </c>
-      <c r="P14" t="s">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -17009,25 +16304,13 @@
         <v>3749</v>
       </c>
       <c r="K15" t="s">
-        <v>5041</v>
+        <v>4998</v>
       </c>
       <c r="L15" t="s">
-        <v>5042</v>
-      </c>
-      <c r="M15" t="s">
-        <v>5043</v>
-      </c>
-      <c r="N15" t="s">
-        <v>5044</v>
-      </c>
-      <c r="O15" t="s">
-        <v>5045</v>
-      </c>
-      <c r="P15" t="s">
-        <v>5046</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -17053,25 +16336,13 @@
         <v>3750</v>
       </c>
       <c r="K16" t="s">
-        <v>5047</v>
+        <v>5001</v>
       </c>
       <c r="L16" t="s">
-        <v>5048</v>
-      </c>
-      <c r="M16" t="s">
-        <v>5049</v>
-      </c>
-      <c r="N16" t="s">
-        <v>5050</v>
-      </c>
-      <c r="O16" t="s">
-        <v>276</v>
-      </c>
-      <c r="P16" t="s">
-        <v>5051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17097,25 +16368,13 @@
         <v>3751</v>
       </c>
       <c r="K17" t="s">
-        <v>5052</v>
+        <v>5003</v>
       </c>
       <c r="L17" t="s">
-        <v>5053</v>
-      </c>
-      <c r="M17" t="s">
-        <v>5054</v>
-      </c>
-      <c r="N17" t="s">
-        <v>5055</v>
-      </c>
-      <c r="O17" t="s">
-        <v>384</v>
-      </c>
-      <c r="P17" t="s">
-        <v>5056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17141,25 +16400,13 @@
         <v>3752</v>
       </c>
       <c r="K18" t="s">
-        <v>5057</v>
+        <v>5005</v>
       </c>
       <c r="L18" t="s">
-        <v>5058</v>
-      </c>
-      <c r="M18" t="s">
-        <v>5059</v>
-      </c>
-      <c r="N18" t="s">
-        <v>5060</v>
-      </c>
-      <c r="O18" t="s">
-        <v>5061</v>
-      </c>
-      <c r="P18" t="s">
-        <v>5062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17185,25 +16432,13 @@
         <v>3753</v>
       </c>
       <c r="K19" t="s">
-        <v>5063</v>
+        <v>5008</v>
       </c>
       <c r="L19" t="s">
-        <v>5064</v>
-      </c>
-      <c r="M19" t="s">
-        <v>5065</v>
-      </c>
-      <c r="N19" t="s">
-        <v>5066</v>
-      </c>
-      <c r="O19" t="s">
-        <v>1391</v>
-      </c>
-      <c r="P19" t="s">
-        <v>5067</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17229,25 +16464,13 @@
         <v>3754</v>
       </c>
       <c r="K20" t="s">
-        <v>5068</v>
+        <v>5010</v>
       </c>
       <c r="L20" t="s">
-        <v>5069</v>
-      </c>
-      <c r="M20" t="s">
-        <v>4981</v>
-      </c>
-      <c r="N20" t="s">
-        <v>5070</v>
-      </c>
-      <c r="O20" t="s">
-        <v>2186</v>
-      </c>
-      <c r="P20" t="s">
-        <v>5071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17273,25 +16496,13 @@
         <v>3755</v>
       </c>
       <c r="K21" t="s">
-        <v>5072</v>
+        <v>5011</v>
       </c>
       <c r="L21" t="s">
-        <v>5073</v>
-      </c>
-      <c r="M21" t="s">
-        <v>5074</v>
-      </c>
-      <c r="N21" t="s">
-        <v>5075</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1775</v>
-      </c>
-      <c r="P21" t="s">
-        <v>5076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -17317,25 +16528,13 @@
         <v>3756</v>
       </c>
       <c r="K22" t="s">
-        <v>5077</v>
+        <v>5013</v>
       </c>
       <c r="L22" t="s">
-        <v>5078</v>
-      </c>
-      <c r="M22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" t="s">
-        <v>5079</v>
-      </c>
-      <c r="O22" t="s">
-        <v>5080</v>
-      </c>
-      <c r="P22" t="s">
-        <v>5081</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17361,25 +16560,13 @@
         <v>3757</v>
       </c>
       <c r="K23" t="s">
-        <v>5082</v>
+        <v>5015</v>
       </c>
       <c r="L23" t="s">
-        <v>5083</v>
-      </c>
-      <c r="M23" t="s">
-        <v>5084</v>
-      </c>
-      <c r="N23" t="s">
-        <v>5085</v>
-      </c>
-      <c r="O23" t="s">
-        <v>5086</v>
-      </c>
-      <c r="P23" t="s">
-        <v>5087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -17405,25 +16592,13 @@
         <v>3758</v>
       </c>
       <c r="K24" t="s">
-        <v>5088</v>
+        <v>5018</v>
       </c>
       <c r="L24" t="s">
-        <v>5089</v>
-      </c>
-      <c r="M24" t="s">
-        <v>5090</v>
-      </c>
-      <c r="N24" t="s">
-        <v>5091</v>
-      </c>
-      <c r="O24" t="s">
-        <v>5092</v>
-      </c>
-      <c r="P24" t="s">
-        <v>5093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17449,25 +16624,13 @@
         <v>3759</v>
       </c>
       <c r="K25" t="s">
-        <v>4969</v>
+        <v>4962</v>
       </c>
       <c r="L25" t="s">
-        <v>4970</v>
-      </c>
-      <c r="M25" t="s">
-        <v>2115</v>
-      </c>
-      <c r="N25" t="s">
-        <v>5094</v>
-      </c>
-      <c r="O25" t="s">
-        <v>5095</v>
-      </c>
-      <c r="P25" t="s">
-        <v>5096</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17493,25 +16656,13 @@
         <v>3760</v>
       </c>
       <c r="K26" t="s">
-        <v>5097</v>
+        <v>5022</v>
       </c>
       <c r="L26" t="s">
-        <v>5098</v>
-      </c>
-      <c r="M26" t="s">
-        <v>5099</v>
-      </c>
-      <c r="N26" t="s">
-        <v>5100</v>
-      </c>
-      <c r="O26" t="s">
-        <v>2448</v>
-      </c>
-      <c r="P26" t="s">
-        <v>5101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17537,25 +16688,13 @@
         <v>3761</v>
       </c>
       <c r="K27" t="s">
-        <v>5102</v>
+        <v>5024</v>
       </c>
       <c r="L27" t="s">
-        <v>5103</v>
-      </c>
-      <c r="M27" t="s">
-        <v>5104</v>
-      </c>
-      <c r="N27" t="s">
-        <v>5105</v>
-      </c>
-      <c r="O27" t="s">
-        <v>5106</v>
-      </c>
-      <c r="P27" t="s">
-        <v>5107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17581,25 +16720,13 @@
         <v>3762</v>
       </c>
       <c r="K28" t="s">
-        <v>5108</v>
+        <v>5027</v>
       </c>
       <c r="L28" t="s">
-        <v>5109</v>
-      </c>
-      <c r="M28" t="s">
-        <v>5110</v>
-      </c>
-      <c r="N28" t="s">
-        <v>5111</v>
-      </c>
-      <c r="O28" t="s">
-        <v>5112</v>
-      </c>
-      <c r="P28" t="s">
-        <v>5113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17625,25 +16752,13 @@
         <v>3763</v>
       </c>
       <c r="K29" t="s">
-        <v>5114</v>
+        <v>5030</v>
       </c>
       <c r="L29" t="s">
-        <v>5115</v>
-      </c>
-      <c r="M29" t="s">
-        <v>5116</v>
-      </c>
-      <c r="N29" t="s">
-        <v>5117</v>
-      </c>
-      <c r="O29" t="s">
-        <v>5118</v>
-      </c>
-      <c r="P29" t="s">
         <v>5119</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -17669,25 +16784,13 @@
         <v>3764</v>
       </c>
       <c r="K30" t="s">
-        <v>5120</v>
+        <v>5033</v>
       </c>
       <c r="L30" t="s">
-        <v>5121</v>
-      </c>
-      <c r="M30" t="s">
-        <v>5122</v>
-      </c>
-      <c r="N30" t="s">
-        <v>5123</v>
-      </c>
-      <c r="O30" t="s">
-        <v>5124</v>
-      </c>
-      <c r="P30" t="s">
-        <v>5125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -17713,25 +16816,13 @@
         <v>3765</v>
       </c>
       <c r="K31" t="s">
-        <v>5126</v>
+        <v>5036</v>
       </c>
       <c r="L31" t="s">
-        <v>5127</v>
-      </c>
-      <c r="M31" t="s">
-        <v>436</v>
-      </c>
-      <c r="N31" t="s">
-        <v>5128</v>
-      </c>
-      <c r="O31" t="s">
-        <v>5129</v>
-      </c>
-      <c r="P31" t="s">
-        <v>5130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -17757,25 +16848,13 @@
         <v>3766</v>
       </c>
       <c r="K32" t="s">
-        <v>5131</v>
+        <v>5038</v>
       </c>
       <c r="L32" t="s">
-        <v>5132</v>
-      </c>
-      <c r="M32" t="s">
-        <v>5133</v>
-      </c>
-      <c r="N32" t="s">
-        <v>5134</v>
-      </c>
-      <c r="O32" t="s">
-        <v>195</v>
-      </c>
-      <c r="P32" t="s">
-        <v>5135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -17801,25 +16880,13 @@
         <v>3767</v>
       </c>
       <c r="K33" t="s">
-        <v>5136</v>
+        <v>5040</v>
       </c>
       <c r="L33" t="s">
-        <v>5137</v>
-      </c>
-      <c r="M33" t="s">
-        <v>2090</v>
-      </c>
-      <c r="N33" t="s">
-        <v>5138</v>
-      </c>
-      <c r="O33" t="s">
-        <v>5139</v>
-      </c>
-      <c r="P33" t="s">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -17845,25 +16912,13 @@
         <v>3768</v>
       </c>
       <c r="K34" t="s">
-        <v>5141</v>
+        <v>5042</v>
       </c>
       <c r="L34" t="s">
-        <v>5142</v>
-      </c>
-      <c r="M34" t="s">
-        <v>5084</v>
-      </c>
-      <c r="N34" t="s">
-        <v>5085</v>
-      </c>
-      <c r="O34" t="s">
-        <v>5143</v>
-      </c>
-      <c r="P34" t="s">
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -17889,25 +16944,13 @@
         <v>3769</v>
       </c>
       <c r="K35" t="s">
-        <v>5145</v>
+        <v>5044</v>
       </c>
       <c r="L35" t="s">
-        <v>5146</v>
-      </c>
-      <c r="M35" t="s">
-        <v>5090</v>
-      </c>
-      <c r="N35" t="s">
-        <v>5091</v>
-      </c>
-      <c r="O35" t="s">
-        <v>5147</v>
-      </c>
-      <c r="P35" t="s">
-        <v>5148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -17933,25 +16976,13 @@
         <v>3770</v>
       </c>
       <c r="K36" t="s">
-        <v>5149</v>
+        <v>5046</v>
       </c>
       <c r="L36" t="s">
-        <v>5024</v>
-      </c>
-      <c r="M36" t="s">
-        <v>5150</v>
-      </c>
-      <c r="N36" t="s">
-        <v>5151</v>
-      </c>
-      <c r="O36" t="s">
-        <v>691</v>
-      </c>
-      <c r="P36" t="s">
-        <v>5152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -17977,25 +17008,13 @@
         <v>3771</v>
       </c>
       <c r="K37" t="s">
-        <v>5153</v>
+        <v>5048</v>
       </c>
       <c r="L37" t="s">
-        <v>5154</v>
-      </c>
-      <c r="M37" t="s">
-        <v>5155</v>
-      </c>
-      <c r="N37" t="s">
-        <v>5156</v>
-      </c>
-      <c r="O37" t="s">
-        <v>5157</v>
-      </c>
-      <c r="P37" t="s">
-        <v>5158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -18021,25 +17040,13 @@
         <v>3772</v>
       </c>
       <c r="K38" t="s">
-        <v>5159</v>
+        <v>5051</v>
       </c>
       <c r="L38" t="s">
-        <v>5160</v>
-      </c>
-      <c r="M38" t="s">
-        <v>5161</v>
-      </c>
-      <c r="N38" t="s">
-        <v>5162</v>
-      </c>
-      <c r="O38" t="s">
-        <v>5163</v>
-      </c>
-      <c r="P38" t="s">
-        <v>5164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -18065,25 +17072,13 @@
         <v>3773</v>
       </c>
       <c r="K39" t="s">
-        <v>5165</v>
+        <v>5054</v>
       </c>
       <c r="L39" t="s">
-        <v>5166</v>
-      </c>
-      <c r="M39" t="s">
-        <v>5167</v>
-      </c>
-      <c r="N39" t="s">
-        <v>5168</v>
-      </c>
-      <c r="O39" t="s">
-        <v>5169</v>
-      </c>
-      <c r="P39" t="s">
-        <v>5170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -18109,25 +17104,13 @@
         <v>3774</v>
       </c>
       <c r="K40" t="s">
-        <v>5171</v>
+        <v>5057</v>
       </c>
       <c r="L40" t="s">
-        <v>5172</v>
-      </c>
-      <c r="M40" t="s">
-        <v>5173</v>
-      </c>
-      <c r="N40" t="s">
-        <v>5174</v>
-      </c>
-      <c r="O40" t="s">
-        <v>5175</v>
-      </c>
-      <c r="P40" t="s">
-        <v>5176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -18153,25 +17136,13 @@
         <v>3775</v>
       </c>
       <c r="K41" t="s">
-        <v>5177</v>
+        <v>5060</v>
       </c>
       <c r="L41" t="s">
-        <v>5178</v>
-      </c>
-      <c r="M41" t="s">
-        <v>5179</v>
-      </c>
-      <c r="N41" t="s">
-        <v>5180</v>
-      </c>
-      <c r="O41" t="s">
-        <v>5181</v>
-      </c>
-      <c r="P41" t="s">
-        <v>5182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -18197,25 +17168,13 @@
         <v>3776</v>
       </c>
       <c r="K42" t="s">
-        <v>5183</v>
+        <v>5063</v>
       </c>
       <c r="L42" t="s">
-        <v>5184</v>
-      </c>
-      <c r="M42" t="s">
-        <v>5185</v>
-      </c>
-      <c r="N42" t="s">
-        <v>5186</v>
-      </c>
-      <c r="O42" t="s">
-        <v>5187</v>
-      </c>
-      <c r="P42" t="s">
-        <v>5188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -18241,25 +17200,13 @@
         <v>3777</v>
       </c>
       <c r="K43" t="s">
-        <v>5189</v>
+        <v>5066</v>
       </c>
       <c r="L43" t="s">
-        <v>5190</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1419</v>
-      </c>
-      <c r="N43" t="s">
-        <v>5191</v>
-      </c>
-      <c r="O43" t="s">
-        <v>148</v>
-      </c>
-      <c r="P43" t="s">
-        <v>5192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -18285,25 +17232,13 @@
         <v>3778</v>
       </c>
       <c r="K44" t="s">
-        <v>5193</v>
+        <v>5067</v>
       </c>
       <c r="L44" t="s">
-        <v>5194</v>
-      </c>
-      <c r="M44" t="s">
-        <v>5195</v>
-      </c>
-      <c r="N44" t="s">
-        <v>5196</v>
-      </c>
-      <c r="O44" t="s">
-        <v>5197</v>
-      </c>
-      <c r="P44" t="s">
-        <v>5198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -18329,25 +17264,13 @@
         <v>3779</v>
       </c>
       <c r="K45" t="s">
-        <v>5199</v>
+        <v>5070</v>
       </c>
       <c r="L45" t="s">
-        <v>5200</v>
-      </c>
-      <c r="M45" t="s">
-        <v>1161</v>
-      </c>
-      <c r="N45" t="s">
-        <v>5201</v>
-      </c>
-      <c r="O45" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P45" t="s">
-        <v>5202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -18373,25 +17296,13 @@
         <v>3780</v>
       </c>
       <c r="K46" t="s">
-        <v>5203</v>
+        <v>5071</v>
       </c>
       <c r="L46" t="s">
-        <v>5204</v>
-      </c>
-      <c r="M46" t="s">
-        <v>5205</v>
-      </c>
-      <c r="N46" t="s">
-        <v>5206</v>
-      </c>
-      <c r="O46" t="s">
-        <v>4991</v>
-      </c>
-      <c r="P46" t="s">
-        <v>4992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -18417,25 +17328,13 @@
         <v>3781</v>
       </c>
       <c r="K47" t="s">
-        <v>5207</v>
+        <v>5073</v>
       </c>
       <c r="L47" t="s">
-        <v>5208</v>
-      </c>
-      <c r="M47" t="s">
-        <v>5209</v>
-      </c>
-      <c r="N47" t="s">
-        <v>5210</v>
-      </c>
-      <c r="O47" t="s">
-        <v>5211</v>
-      </c>
-      <c r="P47" t="s">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -18461,25 +17360,13 @@
         <v>3782</v>
       </c>
       <c r="K48" t="s">
-        <v>5213</v>
+        <v>5076</v>
       </c>
       <c r="L48" t="s">
-        <v>5214</v>
-      </c>
-      <c r="M48" t="s">
-        <v>180</v>
-      </c>
-      <c r="N48" t="s">
-        <v>5215</v>
-      </c>
-      <c r="O48" t="s">
-        <v>5216</v>
-      </c>
-      <c r="P48" t="s">
-        <v>5217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -18505,25 +17392,13 @@
         <v>3783</v>
       </c>
       <c r="K49" t="s">
-        <v>5218</v>
+        <v>5078</v>
       </c>
       <c r="L49" t="s">
-        <v>5219</v>
-      </c>
-      <c r="M49" t="s">
-        <v>34</v>
-      </c>
-      <c r="N49" t="s">
-        <v>5220</v>
-      </c>
-      <c r="O49" t="s">
-        <v>5221</v>
-      </c>
-      <c r="P49" t="s">
-        <v>5222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -18549,25 +17424,13 @@
         <v>3784</v>
       </c>
       <c r="K50" t="s">
-        <v>5223</v>
+        <v>5080</v>
       </c>
       <c r="L50" t="s">
-        <v>5224</v>
-      </c>
-      <c r="M50" t="s">
-        <v>5225</v>
-      </c>
-      <c r="N50" t="s">
-        <v>5226</v>
-      </c>
-      <c r="O50" t="s">
-        <v>5227</v>
-      </c>
-      <c r="P50" t="s">
-        <v>5228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -18593,25 +17456,13 @@
         <v>3785</v>
       </c>
       <c r="K51" t="s">
-        <v>5229</v>
+        <v>5083</v>
       </c>
       <c r="L51" t="s">
-        <v>5230</v>
-      </c>
-      <c r="M51" t="s">
-        <v>5231</v>
-      </c>
-      <c r="N51" t="s">
-        <v>5232</v>
-      </c>
-      <c r="O51" t="s">
-        <v>5233</v>
-      </c>
-      <c r="P51" t="s">
-        <v>5234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -18637,25 +17488,13 @@
         <v>3786</v>
       </c>
       <c r="K52" t="s">
-        <v>5235</v>
+        <v>5086</v>
       </c>
       <c r="L52" t="s">
-        <v>5236</v>
-      </c>
-      <c r="M52" t="s">
-        <v>5237</v>
-      </c>
-      <c r="N52" t="s">
-        <v>5238</v>
-      </c>
-      <c r="O52" t="s">
-        <v>5239</v>
-      </c>
-      <c r="P52" t="s">
-        <v>5240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -18681,25 +17520,13 @@
         <v>3787</v>
       </c>
       <c r="K53" t="s">
-        <v>5241</v>
+        <v>5089</v>
       </c>
       <c r="L53" t="s">
-        <v>5242</v>
-      </c>
-      <c r="M53" t="s">
-        <v>5243</v>
-      </c>
-      <c r="N53" t="s">
-        <v>5244</v>
-      </c>
-      <c r="O53" t="s">
-        <v>5245</v>
-      </c>
-      <c r="P53" t="s">
-        <v>5246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -18725,25 +17552,13 @@
         <v>3788</v>
       </c>
       <c r="K54" t="s">
-        <v>5247</v>
+        <v>5092</v>
       </c>
       <c r="L54" t="s">
-        <v>5248</v>
-      </c>
-      <c r="M54" t="s">
-        <v>713</v>
-      </c>
-      <c r="N54" t="s">
-        <v>5249</v>
-      </c>
-      <c r="O54" t="s">
-        <v>5250</v>
-      </c>
-      <c r="P54" t="s">
-        <v>5251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -18769,25 +17584,13 @@
         <v>3789</v>
       </c>
       <c r="K55" t="s">
-        <v>5252</v>
+        <v>5094</v>
       </c>
       <c r="L55" t="s">
-        <v>5253</v>
-      </c>
-      <c r="M55" t="s">
-        <v>5254</v>
-      </c>
-      <c r="N55" t="s">
-        <v>5255</v>
-      </c>
-      <c r="O55" t="s">
-        <v>5256</v>
-      </c>
-      <c r="P55" t="s">
-        <v>5257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -18813,25 +17616,13 @@
         <v>3790</v>
       </c>
       <c r="K56" t="s">
-        <v>5258</v>
+        <v>5097</v>
       </c>
       <c r="L56" t="s">
-        <v>5259</v>
-      </c>
-      <c r="M56" t="s">
-        <v>1231</v>
-      </c>
-      <c r="N56" t="s">
-        <v>5260</v>
-      </c>
-      <c r="O56" t="s">
-        <v>5261</v>
-      </c>
-      <c r="P56" t="s">
-        <v>5262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -18857,19 +17648,13 @@
         <v>3791</v>
       </c>
       <c r="K57" t="s">
-        <v>5263</v>
+        <v>5099</v>
       </c>
       <c r="L57" t="s">
-        <v>5264</v>
-      </c>
-      <c r="M57" t="s">
-        <v>5265</v>
-      </c>
-      <c r="N57" t="s">
-        <v>5266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -18895,19 +17680,13 @@
         <v>3792</v>
       </c>
       <c r="K58" t="s">
-        <v>5267</v>
+        <v>5101</v>
       </c>
       <c r="L58" t="s">
-        <v>5268</v>
-      </c>
-      <c r="M58" t="s">
-        <v>5269</v>
-      </c>
-      <c r="N58" t="s">
-        <v>5270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -18933,19 +17712,13 @@
         <v>3793</v>
       </c>
       <c r="K59" t="s">
-        <v>5271</v>
+        <v>5103</v>
       </c>
       <c r="L59" t="s">
-        <v>5272</v>
-      </c>
-      <c r="M59" t="s">
-        <v>5273</v>
-      </c>
-      <c r="N59" t="s">
-        <v>5274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -18971,19 +17744,13 @@
         <v>3794</v>
       </c>
       <c r="K60" t="s">
-        <v>5275</v>
+        <v>5105</v>
       </c>
       <c r="L60" t="s">
-        <v>5276</v>
-      </c>
-      <c r="M60" t="s">
-        <v>1851</v>
-      </c>
-      <c r="N60" t="s">
-        <v>5277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -19009,19 +17776,13 @@
         <v>3795</v>
       </c>
       <c r="K61" t="s">
-        <v>5278</v>
+        <v>5106</v>
       </c>
       <c r="L61" t="s">
-        <v>5279</v>
-      </c>
-      <c r="M61" t="s">
-        <v>5280</v>
-      </c>
-      <c r="N61" t="s">
-        <v>5281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -19047,19 +17808,13 @@
         <v>3796</v>
       </c>
       <c r="K62" t="s">
-        <v>5282</v>
+        <v>5108</v>
       </c>
       <c r="L62" t="s">
-        <v>5283</v>
-      </c>
-      <c r="M62" t="s">
-        <v>5161</v>
-      </c>
-      <c r="N62" t="s">
-        <v>5162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -19085,19 +17840,13 @@
         <v>3797</v>
       </c>
       <c r="K63" t="s">
-        <v>5284</v>
+        <v>5109</v>
       </c>
       <c r="L63" t="s">
-        <v>5285</v>
-      </c>
-      <c r="M63" t="s">
-        <v>5167</v>
-      </c>
-      <c r="N63" t="s">
-        <v>5168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -19123,19 +17872,13 @@
         <v>3798</v>
       </c>
       <c r="K64" t="s">
-        <v>5286</v>
+        <v>5110</v>
       </c>
       <c r="L64" t="s">
-        <v>5287</v>
-      </c>
-      <c r="M64" t="s">
-        <v>5288</v>
-      </c>
-      <c r="N64" t="s">
-        <v>5289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -19160,14 +17903,14 @@
       <c r="J65" t="s">
         <v>3799</v>
       </c>
-      <c r="M65" t="s">
-        <v>5290</v>
-      </c>
-      <c r="N65" t="s">
-        <v>5291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K65" t="s">
+        <v>5122</v>
+      </c>
+      <c r="L65" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -19192,14 +17935,14 @@
       <c r="J66" t="s">
         <v>3800</v>
       </c>
-      <c r="M66" t="s">
-        <v>5292</v>
-      </c>
-      <c r="N66" t="s">
-        <v>5293</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K66" t="s">
+        <v>4963</v>
+      </c>
+      <c r="L66" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -19224,14 +17967,14 @@
       <c r="J67" t="s">
         <v>3801</v>
       </c>
-      <c r="M67" t="s">
-        <v>5294</v>
-      </c>
-      <c r="N67" t="s">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K67" t="s">
+        <v>4966</v>
+      </c>
+      <c r="L67" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -19254,14 +17997,14 @@
       <c r="J68" t="s">
         <v>3802</v>
       </c>
-      <c r="M68" t="s">
-        <v>5031</v>
-      </c>
-      <c r="N68" t="s">
-        <v>5032</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K68" t="s">
+        <v>4969</v>
+      </c>
+      <c r="L68" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -19284,14 +18027,14 @@
       <c r="J69" t="s">
         <v>3803</v>
       </c>
-      <c r="M69" t="s">
-        <v>5296</v>
-      </c>
-      <c r="N69" t="s">
-        <v>5297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K69" t="s">
+        <v>4972</v>
+      </c>
+      <c r="L69" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -19316,14 +18059,14 @@
       <c r="J70" t="s">
         <v>3804</v>
       </c>
-      <c r="M70" t="s">
-        <v>55</v>
-      </c>
-      <c r="N70" t="s">
-        <v>5298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K70" t="s">
+        <v>4975</v>
+      </c>
+      <c r="L70" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -19346,14 +18089,14 @@
       <c r="J71" t="s">
         <v>3805</v>
       </c>
-      <c r="M71" t="s">
-        <v>5299</v>
-      </c>
-      <c r="N71" t="s">
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K71" t="s">
+        <v>4978</v>
+      </c>
+      <c r="L71" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -19376,14 +18119,14 @@
       <c r="J72" t="s">
         <v>3806</v>
       </c>
-      <c r="M72" t="s">
-        <v>979</v>
-      </c>
-      <c r="N72" t="s">
-        <v>5301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K72" t="s">
+        <v>4981</v>
+      </c>
+      <c r="L72" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -19406,14 +18149,14 @@
       <c r="J73" t="s">
         <v>3807</v>
       </c>
-      <c r="M73" t="s">
-        <v>5302</v>
-      </c>
-      <c r="N73" t="s">
-        <v>5303</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K73" t="s">
+        <v>4984</v>
+      </c>
+      <c r="L73" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -19436,14 +18179,14 @@
       <c r="J74" t="s">
         <v>3808</v>
       </c>
-      <c r="M74" t="s">
-        <v>5110</v>
-      </c>
-      <c r="N74" t="s">
-        <v>5304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K74" t="s">
+        <v>4987</v>
+      </c>
+      <c r="L74" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -19468,14 +18211,14 @@
       <c r="J75" t="s">
         <v>3809</v>
       </c>
-      <c r="M75" t="s">
-        <v>5116</v>
-      </c>
-      <c r="N75" t="s">
-        <v>5305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K75" t="s">
+        <v>4990</v>
+      </c>
+      <c r="L75" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -19498,14 +18241,14 @@
       <c r="J76" t="s">
         <v>3810</v>
       </c>
-      <c r="M76" t="s">
-        <v>5179</v>
-      </c>
-      <c r="N76" t="s">
-        <v>5306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K76" t="s">
+        <v>4993</v>
+      </c>
+      <c r="L76" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -19530,14 +18273,14 @@
       <c r="J77" t="s">
         <v>3811</v>
       </c>
-      <c r="M77" t="s">
-        <v>5173</v>
-      </c>
-      <c r="N77" t="s">
-        <v>5307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K77" t="s">
+        <v>4996</v>
+      </c>
+      <c r="L77" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -19562,14 +18305,14 @@
       <c r="J78" t="s">
         <v>3812</v>
       </c>
-      <c r="M78" t="s">
-        <v>4981</v>
-      </c>
-      <c r="N78" t="s">
-        <v>5070</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K78" t="s">
+        <v>4999</v>
+      </c>
+      <c r="L78" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -19594,14 +18337,14 @@
       <c r="J79" t="s">
         <v>3813</v>
       </c>
-      <c r="M79" t="s">
-        <v>5074</v>
-      </c>
-      <c r="N79" t="s">
-        <v>5308</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K79" t="s">
+        <v>5002</v>
+      </c>
+      <c r="L79" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -19626,14 +18369,14 @@
       <c r="J80" t="s">
         <v>3814</v>
       </c>
-      <c r="M80" t="s">
-        <v>5309</v>
-      </c>
-      <c r="N80" t="s">
-        <v>5310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K80" t="s">
+        <v>5004</v>
+      </c>
+      <c r="L80" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -19656,14 +18399,14 @@
       <c r="J81" t="s">
         <v>3815</v>
       </c>
-      <c r="M81" t="s">
-        <v>737</v>
-      </c>
-      <c r="N81" t="s">
-        <v>5311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K81" t="s">
+        <v>5006</v>
+      </c>
+      <c r="L81" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -19686,14 +18429,14 @@
       <c r="J82" t="s">
         <v>3816</v>
       </c>
-      <c r="M82" t="s">
-        <v>1215</v>
-      </c>
-      <c r="N82" t="s">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K82" t="s">
+        <v>5009</v>
+      </c>
+      <c r="L82" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -19716,14 +18459,14 @@
       <c r="J83" t="s">
         <v>3817</v>
       </c>
-      <c r="M83" t="s">
-        <v>1127</v>
-      </c>
-      <c r="N83" t="s">
-        <v>5313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K83" t="s">
+        <v>4968</v>
+      </c>
+      <c r="L83" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -19746,8 +18489,14 @@
       <c r="J84" t="s">
         <v>3818</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K84" t="s">
+        <v>5012</v>
+      </c>
+      <c r="L84" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -19770,8 +18519,14 @@
       <c r="J85" t="s">
         <v>3819</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K85" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -19794,8 +18549,14 @@
       <c r="J86" t="s">
         <v>3820</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K86" t="s">
+        <v>5016</v>
+      </c>
+      <c r="L86" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -19818,8 +18579,14 @@
       <c r="J87" t="s">
         <v>3821</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K87" t="s">
+        <v>5019</v>
+      </c>
+      <c r="L87" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -19842,8 +18609,14 @@
       <c r="J88" t="s">
         <v>3822</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K88" t="s">
+        <v>2115</v>
+      </c>
+      <c r="L88" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -19868,8 +18641,14 @@
       <c r="J89" t="s">
         <v>3823</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K89" t="s">
+        <v>5023</v>
+      </c>
+      <c r="L89" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -19892,8 +18671,14 @@
       <c r="J90" t="s">
         <v>3824</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K90" t="s">
+        <v>5025</v>
+      </c>
+      <c r="L90" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -19916,8 +18701,14 @@
       <c r="J91" t="s">
         <v>3825</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K91" t="s">
+        <v>5028</v>
+      </c>
+      <c r="L91" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -19940,8 +18731,14 @@
       <c r="J92" t="s">
         <v>3826</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K92" t="s">
+        <v>5031</v>
+      </c>
+      <c r="L92" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -19966,8 +18763,14 @@
       <c r="J93" t="s">
         <v>3827</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K93" t="s">
+        <v>5034</v>
+      </c>
+      <c r="L93" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -19992,8 +18795,14 @@
       <c r="J94" t="s">
         <v>3828</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K94" t="s">
+        <v>436</v>
+      </c>
+      <c r="L94" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -20016,8 +18825,14 @@
       <c r="J95" t="s">
         <v>3829</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K95" t="s">
+        <v>5039</v>
+      </c>
+      <c r="L95" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -20040,8 +18855,14 @@
       <c r="J96" t="s">
         <v>3830</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K96" t="s">
+        <v>2090</v>
+      </c>
+      <c r="L96" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -20066,8 +18887,14 @@
       <c r="J97" t="s">
         <v>3831</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K97" t="s">
+        <v>5016</v>
+      </c>
+      <c r="L97" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -20092,8 +18919,14 @@
       <c r="J98" t="s">
         <v>3832</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K98" t="s">
+        <v>5019</v>
+      </c>
+      <c r="L98" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -20116,8 +18949,14 @@
       <c r="J99" t="s">
         <v>3833</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K99" t="s">
+        <v>5047</v>
+      </c>
+      <c r="L99" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -20142,8 +18981,14 @@
       <c r="J100" t="s">
         <v>3834</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K100" t="s">
+        <v>5049</v>
+      </c>
+      <c r="L100" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -20168,8 +19013,14 @@
       <c r="J101" t="s">
         <v>3835</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K101" t="s">
+        <v>5052</v>
+      </c>
+      <c r="L101" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -20194,8 +19045,14 @@
       <c r="J102" t="s">
         <v>3836</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K102" t="s">
+        <v>5055</v>
+      </c>
+      <c r="L102" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -20220,8 +19077,14 @@
       <c r="J103" t="s">
         <v>3837</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K103" t="s">
+        <v>5058</v>
+      </c>
+      <c r="L103" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -20246,8 +19109,14 @@
       <c r="J104" t="s">
         <v>3838</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K104" t="s">
+        <v>5061</v>
+      </c>
+      <c r="L104" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -20270,8 +19139,14 @@
       <c r="J105" t="s">
         <v>3839</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K105" t="s">
+        <v>5064</v>
+      </c>
+      <c r="L105" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -20294,8 +19169,14 @@
       <c r="J106" t="s">
         <v>3840</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K106" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L106" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -20318,8 +19199,14 @@
       <c r="J107" t="s">
         <v>3841</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K107" t="s">
+        <v>5068</v>
+      </c>
+      <c r="L107" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -20342,8 +19229,14 @@
       <c r="J108" t="s">
         <v>3842</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K108" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L108" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -20366,8 +19259,14 @@
       <c r="J109" t="s">
         <v>3843</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K109" t="s">
+        <v>5072</v>
+      </c>
+      <c r="L109" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -20390,8 +19289,14 @@
       <c r="J110" t="s">
         <v>3844</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K110" t="s">
+        <v>5074</v>
+      </c>
+      <c r="L110" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -20414,8 +19319,14 @@
       <c r="J111" t="s">
         <v>3845</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K111" t="s">
+        <v>180</v>
+      </c>
+      <c r="L111" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -20438,8 +19349,14 @@
       <c r="J112" t="s">
         <v>3846</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K112" t="s">
+        <v>34</v>
+      </c>
+      <c r="L112" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -20462,8 +19379,14 @@
       <c r="J113" t="s">
         <v>3847</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K113" t="s">
+        <v>5081</v>
+      </c>
+      <c r="L113" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -20486,8 +19409,14 @@
       <c r="J114" t="s">
         <v>3848</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K114" t="s">
+        <v>5084</v>
+      </c>
+      <c r="L114" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -20510,8 +19439,14 @@
       <c r="J115" t="s">
         <v>3849</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K115" t="s">
+        <v>5087</v>
+      </c>
+      <c r="L115" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -20534,8 +19469,14 @@
       <c r="J116" t="s">
         <v>3850</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K116" t="s">
+        <v>5090</v>
+      </c>
+      <c r="L116" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -20558,8 +19499,14 @@
       <c r="J117" t="s">
         <v>3851</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K117" t="s">
+        <v>713</v>
+      </c>
+      <c r="L117" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -20582,8 +19529,14 @@
       <c r="J118" t="s">
         <v>3852</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K118" t="s">
+        <v>5095</v>
+      </c>
+      <c r="L118" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -20606,8 +19559,14 @@
       <c r="J119" t="s">
         <v>3853</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K119" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L119" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -20630,8 +19589,14 @@
       <c r="J120" t="s">
         <v>3854</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K120" t="s">
+        <v>5100</v>
+      </c>
+      <c r="L120" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -20654,8 +19619,14 @@
       <c r="J121" t="s">
         <v>3855</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K121" t="s">
+        <v>5102</v>
+      </c>
+      <c r="L121" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -20678,8 +19649,14 @@
       <c r="J122" t="s">
         <v>3856</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K122" t="s">
+        <v>5104</v>
+      </c>
+      <c r="L122" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -20702,8 +19679,14 @@
       <c r="J123" t="s">
         <v>3857</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K123" t="s">
+        <v>1851</v>
+      </c>
+      <c r="L123" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -20726,8 +19709,14 @@
       <c r="J124" t="s">
         <v>3858</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K124" t="s">
+        <v>5107</v>
+      </c>
+      <c r="L124" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -20750,8 +19739,14 @@
       <c r="J125" t="s">
         <v>3859</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K125" t="s">
+        <v>5052</v>
+      </c>
+      <c r="L125" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -20774,8 +19769,14 @@
       <c r="J126" t="s">
         <v>3860</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K126" t="s">
+        <v>5055</v>
+      </c>
+      <c r="L126" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -20798,8 +19799,14 @@
       <c r="J127" t="s">
         <v>3861</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K127" t="s">
+        <v>5111</v>
+      </c>
+      <c r="L127" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -20822,8 +19829,14 @@
       <c r="J128" t="s">
         <v>3862</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K128" t="s">
+        <v>5112</v>
+      </c>
+      <c r="L128" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -20846,8 +19859,14 @@
       <c r="J129" t="s">
         <v>3863</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K129" t="s">
+        <v>5113</v>
+      </c>
+      <c r="L129" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -20870,8 +19889,14 @@
       <c r="J130" t="s">
         <v>3864</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K130" t="s">
+        <v>5114</v>
+      </c>
+      <c r="L130" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -20894,8 +19919,14 @@
       <c r="J131" t="s">
         <v>3865</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K131" t="s">
+        <v>4993</v>
+      </c>
+      <c r="L131" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -20918,8 +19949,14 @@
       <c r="J132" t="s">
         <v>3866</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K132" t="s">
+        <v>5115</v>
+      </c>
+      <c r="L132" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -20942,8 +19979,14 @@
       <c r="J133" t="s">
         <v>3867</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K133" t="s">
+        <v>55</v>
+      </c>
+      <c r="L133" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -20966,8 +20009,14 @@
       <c r="J134" t="s">
         <v>3868</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K134" t="s">
+        <v>5116</v>
+      </c>
+      <c r="L134" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -20990,8 +20039,14 @@
       <c r="J135" t="s">
         <v>3869</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K135" t="s">
+        <v>979</v>
+      </c>
+      <c r="L135" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -21014,8 +20069,14 @@
       <c r="J136" t="s">
         <v>3870</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K136" t="s">
+        <v>5117</v>
+      </c>
+      <c r="L136" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -21038,8 +20099,14 @@
       <c r="J137" t="s">
         <v>3871</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K137" t="s">
+        <v>5028</v>
+      </c>
+      <c r="L137" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -21062,8 +20129,14 @@
       <c r="J138" t="s">
         <v>3872</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K138" t="s">
+        <v>5031</v>
+      </c>
+      <c r="L138" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -21086,8 +20159,14 @@
       <c r="J139" t="s">
         <v>3873</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K139" t="s">
+        <v>5061</v>
+      </c>
+      <c r="L139" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -21110,8 +20189,14 @@
       <c r="J140" t="s">
         <v>3874</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K140" t="s">
+        <v>5058</v>
+      </c>
+      <c r="L140" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -21134,8 +20219,14 @@
       <c r="J141" t="s">
         <v>3875</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K141" t="s">
+        <v>4968</v>
+      </c>
+      <c r="L141" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -21158,8 +20249,14 @@
       <c r="J142" t="s">
         <v>3876</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K142" t="s">
+        <v>5012</v>
+      </c>
+      <c r="L142" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -21182,8 +20279,14 @@
       <c r="J143" t="s">
         <v>3877</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K143" t="s">
+        <v>5118</v>
+      </c>
+      <c r="L143" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -21206,8 +20309,14 @@
       <c r="J144" t="s">
         <v>3878</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K144" t="s">
+        <v>737</v>
+      </c>
+      <c r="L144" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -21230,8 +20339,14 @@
       <c r="J145" t="s">
         <v>3879</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K145" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L145" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -21254,8 +20369,14 @@
       <c r="J146" t="s">
         <v>3880</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K146" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L146" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -21278,8 +20399,14 @@
       <c r="J147" t="s">
         <v>3881</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K147" t="s">
+        <v>4961</v>
+      </c>
+      <c r="L147" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -21302,8 +20429,14 @@
       <c r="J148" t="s">
         <v>3882</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K148" t="s">
+        <v>4964</v>
+      </c>
+      <c r="L148" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -21326,8 +20459,14 @@
       <c r="J149" t="s">
         <v>3883</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K149" t="s">
+        <v>4967</v>
+      </c>
+      <c r="L149" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -21350,8 +20489,14 @@
       <c r="J150" t="s">
         <v>3884</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K150" t="s">
+        <v>4970</v>
+      </c>
+      <c r="L150" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -21374,8 +20519,14 @@
       <c r="J151" t="s">
         <v>3885</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K151" t="s">
+        <v>4973</v>
+      </c>
+      <c r="L151" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -21398,8 +20549,14 @@
       <c r="J152" t="s">
         <v>3886</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K152" t="s">
+        <v>4976</v>
+      </c>
+      <c r="L152" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -21422,8 +20579,14 @@
       <c r="J153" t="s">
         <v>3887</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K153" t="s">
+        <v>4979</v>
+      </c>
+      <c r="L153" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -21446,8 +20609,14 @@
       <c r="J154" t="s">
         <v>3888</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K154" t="s">
+        <v>4982</v>
+      </c>
+      <c r="L154" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -21470,8 +20639,14 @@
       <c r="J155" t="s">
         <v>3889</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K155" t="s">
+        <v>4985</v>
+      </c>
+      <c r="L155" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -21494,8 +20669,14 @@
       <c r="J156" t="s">
         <v>3890</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K156" t="s">
+        <v>4988</v>
+      </c>
+      <c r="L156" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -21518,8 +20699,14 @@
       <c r="J157" t="s">
         <v>3891</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K157" t="s">
+        <v>4991</v>
+      </c>
+      <c r="L157" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -21542,8 +20729,14 @@
       <c r="J158" t="s">
         <v>3892</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K158" t="s">
+        <v>4994</v>
+      </c>
+      <c r="L158" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -21566,8 +20759,14 @@
       <c r="J159" t="s">
         <v>3893</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K159" t="s">
+        <v>4997</v>
+      </c>
+      <c r="L159" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -21590,8 +20789,14 @@
       <c r="J160" t="s">
         <v>3894</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K160" t="s">
+        <v>5000</v>
+      </c>
+      <c r="L160" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -21614,8 +20819,14 @@
       <c r="J161" t="s">
         <v>3895</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K161" t="s">
+        <v>276</v>
+      </c>
+      <c r="L161" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -21638,8 +20849,14 @@
       <c r="J162" t="s">
         <v>3896</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K162" t="s">
+        <v>384</v>
+      </c>
+      <c r="L162" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -21662,8 +20879,14 @@
       <c r="J163" t="s">
         <v>3897</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K163" t="s">
+        <v>5007</v>
+      </c>
+      <c r="L163" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -21686,8 +20909,14 @@
       <c r="J164" t="s">
         <v>3898</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K164" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L164" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -21710,8 +20939,14 @@
       <c r="J165" t="s">
         <v>3899</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K165" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L165" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -21734,8 +20969,14 @@
       <c r="J166" t="s">
         <v>3900</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K166" t="s">
+        <v>1775</v>
+      </c>
+      <c r="L166" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -21758,8 +20999,14 @@
       <c r="J167" t="s">
         <v>3901</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K167" t="s">
+        <v>5014</v>
+      </c>
+      <c r="L167" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -21782,8 +21029,14 @@
       <c r="J168" t="s">
         <v>3902</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K168" t="s">
+        <v>5017</v>
+      </c>
+      <c r="L168" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -21806,8 +21059,14 @@
       <c r="J169" t="s">
         <v>3903</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K169" t="s">
+        <v>5020</v>
+      </c>
+      <c r="L169" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -21830,8 +21089,14 @@
       <c r="J170" t="s">
         <v>3904</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K170" t="s">
+        <v>5021</v>
+      </c>
+      <c r="L170" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -21854,8 +21119,14 @@
       <c r="J171" t="s">
         <v>3905</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K171" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L171" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -21878,8 +21149,14 @@
       <c r="J172" t="s">
         <v>3906</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K172" t="s">
+        <v>5026</v>
+      </c>
+      <c r="L172" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -21902,8 +21179,14 @@
       <c r="J173" t="s">
         <v>3907</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K173" t="s">
+        <v>5029</v>
+      </c>
+      <c r="L173" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -21926,8 +21209,14 @@
       <c r="J174" t="s">
         <v>3908</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K174" t="s">
+        <v>5032</v>
+      </c>
+      <c r="L174" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -21950,8 +21239,14 @@
       <c r="J175" t="s">
         <v>3909</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K175" t="s">
+        <v>5035</v>
+      </c>
+      <c r="L175" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -21974,8 +21269,14 @@
       <c r="J176" t="s">
         <v>3910</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K176" t="s">
+        <v>5037</v>
+      </c>
+      <c r="L176" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -21998,8 +21299,14 @@
       <c r="J177" t="s">
         <v>3911</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K177" t="s">
+        <v>195</v>
+      </c>
+      <c r="L177" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -22022,8 +21329,14 @@
       <c r="J178" t="s">
         <v>3912</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K178" t="s">
+        <v>5041</v>
+      </c>
+      <c r="L178" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -22046,8 +21359,14 @@
       <c r="J179" t="s">
         <v>3913</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K179" t="s">
+        <v>5043</v>
+      </c>
+      <c r="L179" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -22070,8 +21389,14 @@
       <c r="J180" t="s">
         <v>3914</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K180" t="s">
+        <v>5045</v>
+      </c>
+      <c r="L180" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -22094,8 +21419,14 @@
       <c r="J181" t="s">
         <v>3915</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K181" t="s">
+        <v>691</v>
+      </c>
+      <c r="L181" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -22118,8 +21449,14 @@
       <c r="J182" t="s">
         <v>3916</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K182" t="s">
+        <v>5050</v>
+      </c>
+      <c r="L182" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -22142,8 +21479,14 @@
       <c r="J183" t="s">
         <v>3917</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K183" t="s">
+        <v>5053</v>
+      </c>
+      <c r="L183" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -22166,8 +21509,14 @@
       <c r="J184" t="s">
         <v>3918</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K184" t="s">
+        <v>5056</v>
+      </c>
+      <c r="L184" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -22190,8 +21539,14 @@
       <c r="J185" t="s">
         <v>3919</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K185" t="s">
+        <v>5059</v>
+      </c>
+      <c r="L185" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -22214,8 +21569,14 @@
       <c r="J186" t="s">
         <v>3920</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K186" t="s">
+        <v>5062</v>
+      </c>
+      <c r="L186" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -22238,8 +21599,14 @@
       <c r="J187" t="s">
         <v>3921</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K187" t="s">
+        <v>5065</v>
+      </c>
+      <c r="L187" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -22262,8 +21629,14 @@
       <c r="J188" t="s">
         <v>3922</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K188" t="s">
+        <v>148</v>
+      </c>
+      <c r="L188" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -22286,8 +21659,14 @@
       <c r="J189" t="s">
         <v>3923</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K189" t="s">
+        <v>5069</v>
+      </c>
+      <c r="L189" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -22310,8 +21689,14 @@
       <c r="J190" t="s">
         <v>3924</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K190" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L190" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -22334,8 +21719,14 @@
       <c r="J191" t="s">
         <v>3925</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K191" t="s">
+        <v>4973</v>
+      </c>
+      <c r="L191" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -22358,8 +21749,14 @@
       <c r="J192" t="s">
         <v>3926</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K192" t="s">
+        <v>5075</v>
+      </c>
+      <c r="L192" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -22382,8 +21779,14 @@
       <c r="J193" t="s">
         <v>3927</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K193" t="s">
+        <v>5077</v>
+      </c>
+      <c r="L193" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -22406,8 +21809,14 @@
       <c r="J194" t="s">
         <v>3928</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K194" t="s">
+        <v>5079</v>
+      </c>
+      <c r="L194" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -22430,8 +21839,14 @@
       <c r="J195" t="s">
         <v>3929</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K195" t="s">
+        <v>5082</v>
+      </c>
+      <c r="L195" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -22454,8 +21869,14 @@
       <c r="J196" t="s">
         <v>3930</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K196" t="s">
+        <v>5085</v>
+      </c>
+      <c r="L196" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -22478,8 +21899,14 @@
       <c r="J197" t="s">
         <v>3931</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K197" t="s">
+        <v>5088</v>
+      </c>
+      <c r="L197" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -22502,8 +21929,14 @@
       <c r="J198" t="s">
         <v>3932</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K198" t="s">
+        <v>5091</v>
+      </c>
+      <c r="L198" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -22526,8 +21959,14 @@
       <c r="J199" t="s">
         <v>3933</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K199" t="s">
+        <v>5093</v>
+      </c>
+      <c r="L199" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -22550,8 +21989,14 @@
       <c r="J200" t="s">
         <v>3934</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K200" t="s">
+        <v>5096</v>
+      </c>
+      <c r="L200" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -22574,8 +22019,14 @@
       <c r="J201" t="s">
         <v>3935</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="K201" t="s">
+        <v>5098</v>
+      </c>
+      <c r="L201" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -22599,7 +22050,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -22623,7 +22074,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -22647,7 +22098,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -22671,7 +22122,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -22695,7 +22146,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -22719,7 +22170,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9750" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14906,9 +14906,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>意味</t>
-    <rPh sb="0" eb="2">
-      <t>イミ</t>
+    <t>日本文</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -15332,7 +15332,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4959</v>
+        <v>4958</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -15341,7 +15341,7 @@
         <v>4957</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4958</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
